--- a/clima.xlsx
+++ b/clima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,67 +516,57 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>wind.gust</t>
+          <t>clouds.all</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>clouds.all</t>
+          <t>sys.type</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>sys.type</t>
+          <t>sys.id</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>sys.id</t>
+          <t>sys.country</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sys.country</t>
+          <t>weather.id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>weather.main</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>weather.description</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>weather.icon</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>dt</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>sys.sunrise</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>sys.sunset</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>rain.1h</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>weather.id</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>weather.main</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>weather.description</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>weather.icon</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>dt</t>
         </is>
       </c>
     </row>
@@ -610,74 +600,74 @@
         <v>51.5085</v>
       </c>
       <c r="I2" t="n">
-        <v>291.43</v>
+        <v>290.7</v>
       </c>
       <c r="J2" t="n">
-        <v>291.4</v>
+        <v>290.78</v>
       </c>
       <c r="K2" t="n">
-        <v>290.29</v>
+        <v>289.68</v>
       </c>
       <c r="L2" t="n">
-        <v>292.13</v>
+        <v>291.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O2" t="n">
         <v>4.63</v>
       </c>
       <c r="P2" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.77</v>
+        <v>75</v>
       </c>
       <c r="R2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
         <v>2075535</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>1690517856</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1690574170</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>804</v>
+      <c r="U2" t="n">
+        <v>803</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:02:39</t>
+        </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-29 01:19:04</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:55</t>
+          <t>2023-07-29 16:54:41</t>
         </is>
       </c>
     </row>
@@ -711,74 +701,74 @@
         <v>51.5085</v>
       </c>
       <c r="I3" t="n">
-        <v>291.43</v>
+        <v>290.7</v>
       </c>
       <c r="J3" t="n">
-        <v>291.4</v>
+        <v>290.78</v>
       </c>
       <c r="K3" t="n">
-        <v>290.29</v>
+        <v>289.68</v>
       </c>
       <c r="L3" t="n">
-        <v>292.13</v>
+        <v>291.38</v>
       </c>
       <c r="M3" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N3" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O3" t="n">
         <v>4.63</v>
       </c>
       <c r="P3" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.77</v>
+        <v>75</v>
       </c>
       <c r="R3" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
         <v>2075535</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>1690517856</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1690574170</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>804</v>
+      <c r="U3" t="n">
+        <v>803</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:02:39</t>
+        </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-29 01:19:04</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:55</t>
+          <t>2023-07-29 16:54:41</t>
         </is>
       </c>
     </row>
@@ -812,74 +802,74 @@
         <v>51.5085</v>
       </c>
       <c r="I4" t="n">
-        <v>291.43</v>
+        <v>290.67</v>
       </c>
       <c r="J4" t="n">
-        <v>291.4</v>
+        <v>290.75</v>
       </c>
       <c r="K4" t="n">
-        <v>290.29</v>
+        <v>289.64</v>
       </c>
       <c r="L4" t="n">
-        <v>292.13</v>
+        <v>291.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N4" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O4" t="n">
-        <v>4.63</v>
+        <v>4.12</v>
       </c>
       <c r="P4" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.77</v>
+        <v>75</v>
       </c>
       <c r="R4" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="n">
         <v>2075535</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>1690517856</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1690574170</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>804</v>
+      <c r="U4" t="n">
+        <v>803</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:58</t>
+        </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-29 01:19:04</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:36</t>
+          <t>2023-07-29 16:54:41</t>
         </is>
       </c>
     </row>
@@ -913,74 +903,74 @@
         <v>51.5085</v>
       </c>
       <c r="I5" t="n">
-        <v>291.41</v>
+        <v>290.67</v>
       </c>
       <c r="J5" t="n">
-        <v>291.41</v>
+        <v>290.75</v>
       </c>
       <c r="K5" t="n">
-        <v>290.23</v>
+        <v>289.64</v>
       </c>
       <c r="L5" t="n">
-        <v>292.13</v>
+        <v>291.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N5" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O5" t="n">
-        <v>4.63</v>
+        <v>4.12</v>
       </c>
       <c r="P5" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.77</v>
+        <v>75</v>
       </c>
       <c r="R5" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
         <v>2075535</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="V5" t="n">
-        <v>1690517856</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1690574170</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>804</v>
+      <c r="U5" t="n">
+        <v>803</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:58</t>
+        </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-29 01:19:04</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:09</t>
+          <t>2023-07-29 16:54:41</t>
         </is>
       </c>
     </row>
@@ -1014,74 +1004,74 @@
         <v>51.5085</v>
       </c>
       <c r="I6" t="n">
-        <v>291.41</v>
+        <v>290.65</v>
       </c>
       <c r="J6" t="n">
-        <v>291.41</v>
+        <v>290.73</v>
       </c>
       <c r="K6" t="n">
-        <v>290.23</v>
+        <v>289.64</v>
       </c>
       <c r="L6" t="n">
-        <v>292.13</v>
+        <v>291.38</v>
       </c>
       <c r="M6" t="n">
         <v>1005</v>
       </c>
       <c r="N6" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O6" t="n">
-        <v>4.63</v>
+        <v>4.12</v>
       </c>
       <c r="P6" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.77</v>
+        <v>75</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
         <v>2075535</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>1690517856</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1690574170</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>804</v>
+      <c r="U6" t="n">
+        <v>803</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:24</t>
+        </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-29 01:19:04</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:09</t>
+          <t>2023-07-29 16:54:41</t>
         </is>
       </c>
     </row>
@@ -1115,74 +1105,74 @@
         <v>40.7143</v>
       </c>
       <c r="I7" t="n">
-        <v>306.3</v>
+        <v>303.53</v>
       </c>
       <c r="J7" t="n">
-        <v>309.45</v>
+        <v>306.51</v>
       </c>
       <c r="K7" t="n">
-        <v>303.12</v>
+        <v>299.79</v>
       </c>
       <c r="L7" t="n">
-        <v>308.68</v>
+        <v>306.13</v>
       </c>
       <c r="M7" t="n">
         <v>1014</v>
       </c>
       <c r="N7" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O7" t="n">
         <v>5.14</v>
       </c>
       <c r="P7" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2008101</v>
-      </c>
-      <c r="U7" t="inlineStr">
+        <v>4610</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V7" t="n">
-        <v>1690537714</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1690589775</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
+      <c r="U7" t="n">
         <v>800</v>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:02:58</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 06:48:34</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:16:59</t>
+          <t>2023-07-28 21:16:15</t>
         </is>
       </c>
     </row>
@@ -1216,74 +1206,74 @@
         <v>40.7143</v>
       </c>
       <c r="I8" t="n">
-        <v>306.31</v>
+        <v>303.53</v>
       </c>
       <c r="J8" t="n">
-        <v>309.47</v>
+        <v>306.51</v>
       </c>
       <c r="K8" t="n">
-        <v>303.12</v>
+        <v>299.79</v>
       </c>
       <c r="L8" t="n">
-        <v>308.68</v>
+        <v>306.13</v>
       </c>
       <c r="M8" t="n">
         <v>1014</v>
       </c>
       <c r="N8" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O8" t="n">
         <v>5.14</v>
       </c>
       <c r="P8" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2008101</v>
-      </c>
-      <c r="U8" t="inlineStr">
+        <v>4610</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V8" t="n">
-        <v>1690537714</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1690589775</v>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
+      <c r="U8" t="n">
         <v>800</v>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:43</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 06:48:34</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:16:03</t>
+          <t>2023-07-28 21:16:15</t>
         </is>
       </c>
     </row>
@@ -1317,74 +1307,74 @@
         <v>40.7143</v>
       </c>
       <c r="I9" t="n">
-        <v>306.34</v>
+        <v>303.53</v>
       </c>
       <c r="J9" t="n">
-        <v>309.53</v>
+        <v>306.51</v>
       </c>
       <c r="K9" t="n">
-        <v>303.12</v>
+        <v>299.79</v>
       </c>
       <c r="L9" t="n">
-        <v>308.68</v>
+        <v>306.13</v>
       </c>
       <c r="M9" t="n">
         <v>1014</v>
       </c>
       <c r="N9" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O9" t="n">
         <v>5.14</v>
       </c>
       <c r="P9" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2008101</v>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>4610</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V9" t="n">
-        <v>1690537714</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1690589775</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
+      <c r="U9" t="n">
         <v>800</v>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:02:58</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 06:48:34</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:01</t>
+          <t>2023-07-28 21:16:15</t>
         </is>
       </c>
     </row>
@@ -1418,74 +1408,74 @@
         <v>40.7143</v>
       </c>
       <c r="I10" t="n">
-        <v>306.3</v>
+        <v>303.52</v>
       </c>
       <c r="J10" t="n">
-        <v>309.45</v>
+        <v>306.49</v>
       </c>
       <c r="K10" t="n">
-        <v>303.12</v>
+        <v>299.79</v>
       </c>
       <c r="L10" t="n">
-        <v>308.68</v>
+        <v>306.13</v>
       </c>
       <c r="M10" t="n">
         <v>1014</v>
       </c>
       <c r="N10" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O10" t="n">
         <v>5.14</v>
       </c>
       <c r="P10" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2008101</v>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>4610</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V10" t="n">
-        <v>1690537714</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1690589775</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
+      <c r="U10" t="n">
         <v>800</v>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:00</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 06:48:34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:16:59</t>
+          <t>2023-07-28 21:16:15</t>
         </is>
       </c>
     </row>
@@ -1519,74 +1509,74 @@
         <v>40.7143</v>
       </c>
       <c r="I11" t="n">
-        <v>306.26</v>
+        <v>303.53</v>
       </c>
       <c r="J11" t="n">
-        <v>309.37</v>
+        <v>306.51</v>
       </c>
       <c r="K11" t="n">
-        <v>303.12</v>
+        <v>299.79</v>
       </c>
       <c r="L11" t="n">
-        <v>308.68</v>
+        <v>306.13</v>
       </c>
       <c r="M11" t="n">
         <v>1014</v>
       </c>
       <c r="N11" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O11" t="n">
         <v>5.14</v>
       </c>
       <c r="P11" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
         <v>4610</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V11" t="n">
-        <v>1690537714</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1690589775</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
+      <c r="U11" t="n">
         <v>800</v>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:43</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 06:48:34</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:43</t>
+          <t>2023-07-28 21:16:15</t>
         </is>
       </c>
     </row>
@@ -1620,72 +1610,74 @@
         <v>-31.4135</v>
       </c>
       <c r="I12" t="n">
-        <v>292.49</v>
+        <v>287.97</v>
       </c>
       <c r="J12" t="n">
-        <v>291.24</v>
+        <v>286.66</v>
       </c>
       <c r="K12" t="n">
-        <v>290.92</v>
+        <v>283.15</v>
       </c>
       <c r="L12" t="n">
-        <v>293.01</v>
+        <v>288.84</v>
       </c>
       <c r="M12" t="n">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="N12" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O12" t="n">
-        <v>5.14</v>
+        <v>2.68</v>
       </c>
       <c r="P12" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>23</v>
+      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
-      </c>
-      <c r="T12" t="n">
         <v>2036678</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V12" t="n">
-        <v>1690542450</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1690580323</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>800</v>
+      <c r="U12" t="n">
+        <v>801</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:22</t>
+        </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 08:07:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:27</t>
+          <t>2023-07-28 18:38:43</t>
         </is>
       </c>
     </row>
@@ -1719,72 +1711,74 @@
         <v>-31.4135</v>
       </c>
       <c r="I13" t="n">
-        <v>292.71</v>
+        <v>284.64</v>
       </c>
       <c r="J13" t="n">
-        <v>291.48</v>
+        <v>283.2</v>
       </c>
       <c r="K13" t="n">
-        <v>290.92</v>
+        <v>278.62</v>
       </c>
       <c r="L13" t="n">
-        <v>293.57</v>
+        <v>288.84</v>
       </c>
       <c r="M13" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N13" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="O13" t="n">
-        <v>5.14</v>
+        <v>4.12</v>
       </c>
       <c r="P13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
         <v>2036678</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V13" t="n">
-        <v>1690542450</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1690580323</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
+      <c r="U13" t="n">
         <v>800</v>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:25</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 08:07:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:13:54</t>
+          <t>2023-07-28 18:38:43</t>
         </is>
       </c>
     </row>
@@ -1818,72 +1812,74 @@
         <v>-31.4135</v>
       </c>
       <c r="I14" t="n">
-        <v>292.71</v>
+        <v>284.64</v>
       </c>
       <c r="J14" t="n">
-        <v>291.48</v>
+        <v>283.2</v>
       </c>
       <c r="K14" t="n">
-        <v>290.92</v>
+        <v>278.62</v>
       </c>
       <c r="L14" t="n">
-        <v>293.57</v>
+        <v>288.84</v>
       </c>
       <c r="M14" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="O14" t="n">
-        <v>5.14</v>
+        <v>4.12</v>
       </c>
       <c r="P14" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
-      </c>
-      <c r="T14" t="n">
         <v>2036678</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V14" t="n">
-        <v>1690542450</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1690580323</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
+      <c r="U14" t="n">
         <v>800</v>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:26</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 08:07:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:13:54</t>
+          <t>2023-07-28 18:38:43</t>
         </is>
       </c>
     </row>
@@ -1917,72 +1913,74 @@
         <v>-31.4135</v>
       </c>
       <c r="I15" t="n">
-        <v>292.49</v>
+        <v>287.97</v>
       </c>
       <c r="J15" t="n">
-        <v>291.24</v>
+        <v>286.66</v>
       </c>
       <c r="K15" t="n">
-        <v>290.92</v>
+        <v>283.15</v>
       </c>
       <c r="L15" t="n">
-        <v>293.01</v>
+        <v>288.84</v>
       </c>
       <c r="M15" t="n">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="N15" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O15" t="n">
-        <v>5.14</v>
+        <v>2.68</v>
       </c>
       <c r="P15" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>23</v>
+      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
         <v>2036678</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V15" t="n">
-        <v>1690542450</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1690580323</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>800</v>
+      <c r="U15" t="n">
+        <v>801</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:16</t>
+        </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 08:07:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:16:59</t>
+          <t>2023-07-28 18:38:43</t>
         </is>
       </c>
     </row>
@@ -2016,72 +2014,74 @@
         <v>-31.4135</v>
       </c>
       <c r="I16" t="n">
-        <v>292.49</v>
+        <v>287.97</v>
       </c>
       <c r="J16" t="n">
-        <v>291.24</v>
+        <v>286.66</v>
       </c>
       <c r="K16" t="n">
-        <v>290.92</v>
+        <v>283.15</v>
       </c>
       <c r="L16" t="n">
-        <v>293.01</v>
+        <v>288.84</v>
       </c>
       <c r="M16" t="n">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="N16" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
-        <v>5.14</v>
+        <v>2.68</v>
       </c>
       <c r="P16" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>23</v>
+      </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
         <v>2036678</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V16" t="n">
-        <v>1690542450</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1690580323</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>800</v>
+      <c r="U16" t="n">
+        <v>801</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:16</t>
+        </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 08:07:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:16:59</t>
+          <t>2023-07-28 18:38:43</t>
         </is>
       </c>
     </row>
@@ -2115,72 +2115,74 @@
         <v>25.0478</v>
       </c>
       <c r="I17" t="n">
-        <v>299.4</v>
+        <v>301.83</v>
       </c>
       <c r="J17" t="n">
-        <v>299.4</v>
+        <v>303.25</v>
       </c>
       <c r="K17" t="n">
-        <v>298.46</v>
+        <v>301.43</v>
       </c>
       <c r="L17" t="n">
-        <v>300.4</v>
+        <v>302.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N17" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O17" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="P17" t="n">
         <v>100</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>75</v>
+      </c>
       <c r="R17" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
-      </c>
-      <c r="T17" t="n">
         <v>266033</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="V17" t="n">
-        <v>1690579169</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1690627260</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
+      <c r="U17" t="n">
         <v>803</v>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:07</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 18:19:29</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:33</t>
+          <t>2023-07-29 07:41:00</t>
         </is>
       </c>
     </row>
@@ -2214,72 +2216,74 @@
         <v>25.0478</v>
       </c>
       <c r="I18" t="n">
-        <v>299.97</v>
+        <v>301.83</v>
       </c>
       <c r="J18" t="n">
-        <v>301.42</v>
+        <v>303.25</v>
       </c>
       <c r="K18" t="n">
-        <v>298.46</v>
+        <v>301.43</v>
       </c>
       <c r="L18" t="n">
-        <v>302.05</v>
+        <v>302.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N18" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O18" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
         <v>100</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>75</v>
+      </c>
       <c r="R18" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
         <v>266033</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="V18" t="n">
-        <v>1690579169</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1690627260</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
+      <c r="U18" t="n">
         <v>803</v>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:07</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 18:19:29</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:42</t>
+          <t>2023-07-29 07:41:00</t>
         </is>
       </c>
     </row>
@@ -2313,72 +2317,74 @@
         <v>25.0478</v>
       </c>
       <c r="I19" t="n">
-        <v>299.97</v>
+        <v>301.83</v>
       </c>
       <c r="J19" t="n">
-        <v>301.42</v>
+        <v>303.25</v>
       </c>
       <c r="K19" t="n">
-        <v>298.46</v>
+        <v>301.43</v>
       </c>
       <c r="L19" t="n">
-        <v>302.05</v>
+        <v>302.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N19" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O19" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="P19" t="n">
         <v>100</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>75</v>
+      </c>
       <c r="R19" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" t="n">
         <v>266033</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="V19" t="n">
-        <v>1690579169</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1690627260</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
+      <c r="U19" t="n">
         <v>803</v>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:49</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 18:19:29</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:44</t>
+          <t>2023-07-29 07:41:00</t>
         </is>
       </c>
     </row>
@@ -2412,72 +2418,74 @@
         <v>25.0478</v>
       </c>
       <c r="I20" t="n">
-        <v>299.97</v>
+        <v>301.83</v>
       </c>
       <c r="J20" t="n">
-        <v>301.42</v>
+        <v>303.25</v>
       </c>
       <c r="K20" t="n">
-        <v>298.46</v>
+        <v>301.43</v>
       </c>
       <c r="L20" t="n">
-        <v>302.05</v>
+        <v>302.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N20" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O20" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="P20" t="n">
         <v>100</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>75</v>
+      </c>
       <c r="R20" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
         <v>266033</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="V20" t="n">
-        <v>1690579169</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1690627260</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
+      <c r="U20" t="n">
         <v>803</v>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:39</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 18:19:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:44</t>
+          <t>2023-07-29 07:41:00</t>
         </is>
       </c>
     </row>
@@ -2511,72 +2519,74 @@
         <v>25.0478</v>
       </c>
       <c r="I21" t="n">
-        <v>299.97</v>
+        <v>301.83</v>
       </c>
       <c r="J21" t="n">
-        <v>301.42</v>
+        <v>303.25</v>
       </c>
       <c r="K21" t="n">
-        <v>298.46</v>
+        <v>301.43</v>
       </c>
       <c r="L21" t="n">
-        <v>302.05</v>
+        <v>302.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N21" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O21" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="P21" t="n">
         <v>100</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>75</v>
+      </c>
       <c r="R21" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" t="n">
         <v>266033</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="V21" t="n">
-        <v>1690579169</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1690627260</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
+      <c r="U21" t="n">
         <v>803</v>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:51</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 18:19:29</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:47</t>
+          <t>2023-07-29 07:41:00</t>
         </is>
       </c>
     </row>
@@ -2593,11 +2603,11 @@
         <v>-10800</v>
       </c>
       <c r="D22" t="n">
-        <v>3435910</v>
+        <v>6693229</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>San Nicolas</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2610,22 +2620,22 @@
         <v>-34.6132</v>
       </c>
       <c r="I22" t="n">
-        <v>284.54</v>
+        <v>284.4</v>
       </c>
       <c r="J22" t="n">
-        <v>283.75</v>
+        <v>283.64</v>
       </c>
       <c r="K22" t="n">
-        <v>283.61</v>
+        <v>283.12</v>
       </c>
       <c r="L22" t="n">
-        <v>285.36</v>
+        <v>285</v>
       </c>
       <c r="M22" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N22" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O22" t="n">
         <v>9.390000000000001</v>
@@ -2637,47 +2647,47 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2084309</v>
-      </c>
-      <c r="U22" t="inlineStr">
+        <v>8224</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V22" t="n">
-        <v>1690541433</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1690578554</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
+      <c r="U22" t="n">
         <v>800</v>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:48</t>
+        </is>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 07:50:33</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:23</t>
+          <t>2023-07-28 18:09:14</t>
         </is>
       </c>
     </row>
@@ -2694,11 +2704,11 @@
         <v>-10800</v>
       </c>
       <c r="D23" t="n">
-        <v>6693229</v>
+        <v>3435910</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>San Nicolas</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2711,22 +2721,22 @@
         <v>-34.6132</v>
       </c>
       <c r="I23" t="n">
-        <v>284.54</v>
+        <v>284.24</v>
       </c>
       <c r="J23" t="n">
-        <v>283.75</v>
+        <v>283.49</v>
       </c>
       <c r="K23" t="n">
-        <v>283.61</v>
+        <v>282.49</v>
       </c>
       <c r="L23" t="n">
-        <v>285.36</v>
+        <v>284.79</v>
       </c>
       <c r="M23" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N23" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O23" t="n">
         <v>9.390000000000001</v>
@@ -2735,50 +2745,50 @@
         <v>100</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2084309</v>
-      </c>
-      <c r="U23" t="inlineStr">
+        <v>2084248</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V23" t="n">
-        <v>1690541433</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1690578554</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>800</v>
+      <c r="U23" t="n">
+        <v>801</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:19</t>
+        </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 07:50:33</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:34</t>
+          <t>2023-07-28 18:09:14</t>
         </is>
       </c>
     </row>
@@ -2795,11 +2805,11 @@
         <v>-10800</v>
       </c>
       <c r="D24" t="n">
-        <v>3435910</v>
+        <v>6693229</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>San Nicolas</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2812,22 +2822,22 @@
         <v>-34.6132</v>
       </c>
       <c r="I24" t="n">
-        <v>284.65</v>
+        <v>284.24</v>
       </c>
       <c r="J24" t="n">
-        <v>283.84</v>
+        <v>283.49</v>
       </c>
       <c r="K24" t="n">
-        <v>283.61</v>
+        <v>282.49</v>
       </c>
       <c r="L24" t="n">
-        <v>285.36</v>
+        <v>284.79</v>
       </c>
       <c r="M24" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N24" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O24" t="n">
         <v>9.390000000000001</v>
@@ -2836,50 +2846,50 @@
         <v>100</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2084309</v>
-      </c>
-      <c r="U24" t="inlineStr">
+        <v>2084248</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V24" t="n">
-        <v>1690541433</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1690578554</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>800</v>
+      <c r="U24" t="n">
+        <v>801</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:41</t>
+        </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 07:50:33</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:35</t>
+          <t>2023-07-28 18:09:14</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2923,22 @@
         <v>-34.6132</v>
       </c>
       <c r="I25" t="n">
-        <v>284.54</v>
+        <v>284.24</v>
       </c>
       <c r="J25" t="n">
-        <v>283.75</v>
+        <v>283.49</v>
       </c>
       <c r="K25" t="n">
-        <v>283.61</v>
+        <v>282.49</v>
       </c>
       <c r="L25" t="n">
-        <v>285.36</v>
+        <v>284.79</v>
       </c>
       <c r="M25" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N25" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" t="n">
         <v>9.390000000000001</v>
@@ -2937,50 +2947,50 @@
         <v>100</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2084309</v>
-      </c>
-      <c r="U25" t="inlineStr">
+        <v>2084248</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V25" t="n">
-        <v>1690541433</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1690578554</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="n">
-        <v>800</v>
+      <c r="U25" t="n">
+        <v>801</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:43</t>
+        </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 07:50:33</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:23</t>
+          <t>2023-07-28 18:09:14</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3024,22 @@
         <v>-34.6132</v>
       </c>
       <c r="I26" t="n">
-        <v>284.54</v>
+        <v>284.4</v>
       </c>
       <c r="J26" t="n">
-        <v>283.72</v>
+        <v>283.64</v>
       </c>
       <c r="K26" t="n">
-        <v>283.61</v>
+        <v>283.12</v>
       </c>
       <c r="L26" t="n">
-        <v>285.36</v>
+        <v>285</v>
       </c>
       <c r="M26" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N26" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O26" t="n">
         <v>9.390000000000001</v>
@@ -3041,47 +3051,47 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2084309</v>
-      </c>
-      <c r="U26" t="inlineStr">
+        <v>8224</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="V26" t="n">
-        <v>1690541433</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1690578554</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="n">
+      <c r="U26" t="n">
         <v>800</v>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:48</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 07:50:33</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:14</t>
+          <t>2023-07-28 18:09:14</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3102,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9656</v>
+        <v>10000</v>
       </c>
       <c r="C27" t="n">
         <v>-21600</v>
@@ -3115,74 +3125,74 @@
         <v>19.4285</v>
       </c>
       <c r="I27" t="n">
-        <v>293.84</v>
+        <v>292.97</v>
       </c>
       <c r="J27" t="n">
-        <v>293.4</v>
+        <v>292.34</v>
       </c>
       <c r="K27" t="n">
-        <v>292.4</v>
+        <v>288.4</v>
       </c>
       <c r="L27" t="n">
-        <v>294.11</v>
+        <v>293.12</v>
       </c>
       <c r="M27" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N27" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O27" t="n">
-        <v>7.2</v>
+        <v>2.24</v>
       </c>
       <c r="P27" t="n">
-        <v>270</v>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>100</v>
+      </c>
       <c r="R27" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
-      </c>
-      <c r="T27" t="n">
         <v>47729</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="V27" t="n">
-        <v>1690546275</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1690593272</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="U27" t="n">
         <v>500</v>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>10d</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:52</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>2023-07-28 09:11:15</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>light rain</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>10d</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:37</t>
+          <t>2023-07-28 22:14:32</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3203,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9656</v>
+        <v>10000</v>
       </c>
       <c r="C28" t="n">
         <v>-21600</v>
@@ -3216,74 +3226,74 @@
         <v>19.4285</v>
       </c>
       <c r="I28" t="n">
-        <v>293.84</v>
+        <v>292.97</v>
       </c>
       <c r="J28" t="n">
-        <v>293.4</v>
+        <v>292.34</v>
       </c>
       <c r="K28" t="n">
-        <v>292.4</v>
+        <v>288.4</v>
       </c>
       <c r="L28" t="n">
-        <v>294.11</v>
+        <v>293.12</v>
       </c>
       <c r="M28" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N28" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O28" t="n">
-        <v>7.2</v>
+        <v>2.24</v>
       </c>
       <c r="P28" t="n">
-        <v>270</v>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>100</v>
+      </c>
       <c r="R28" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
-      </c>
-      <c r="T28" t="n">
         <v>47729</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="V28" t="n">
-        <v>1690546275</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1690593272</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y28" t="n">
+      <c r="U28" t="n">
         <v>500</v>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>10d</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:33</t>
+        </is>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>2023-07-28 09:11:15</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>light rain</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>10d</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:37</t>
+          <t>2023-07-28 22:14:32</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3304,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9656</v>
+        <v>10000</v>
       </c>
       <c r="C29" t="n">
         <v>-21600</v>
@@ -3317,74 +3327,74 @@
         <v>19.4285</v>
       </c>
       <c r="I29" t="n">
-        <v>293.84</v>
+        <v>292.97</v>
       </c>
       <c r="J29" t="n">
-        <v>293.4</v>
+        <v>292.34</v>
       </c>
       <c r="K29" t="n">
-        <v>292.4</v>
+        <v>288.4</v>
       </c>
       <c r="L29" t="n">
-        <v>294.11</v>
+        <v>293.12</v>
       </c>
       <c r="M29" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N29" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O29" t="n">
-        <v>7.2</v>
+        <v>2.24</v>
       </c>
       <c r="P29" t="n">
-        <v>270</v>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>100</v>
+      </c>
       <c r="R29" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
-      </c>
-      <c r="T29" t="n">
         <v>47729</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="V29" t="n">
-        <v>1690546275</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1690593272</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y29" t="n">
+      <c r="U29" t="n">
         <v>500</v>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>10d</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:33</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>2023-07-28 09:11:15</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>light rain</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>10d</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:41</t>
+          <t>2023-07-28 22:14:32</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3405,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9656</v>
+        <v>10000</v>
       </c>
       <c r="C30" t="n">
         <v>-21600</v>
@@ -3418,74 +3428,74 @@
         <v>19.4285</v>
       </c>
       <c r="I30" t="n">
-        <v>293.84</v>
+        <v>292.97</v>
       </c>
       <c r="J30" t="n">
-        <v>293.4</v>
+        <v>292.34</v>
       </c>
       <c r="K30" t="n">
-        <v>292.4</v>
+        <v>288.4</v>
       </c>
       <c r="L30" t="n">
-        <v>294.11</v>
+        <v>293.12</v>
       </c>
       <c r="M30" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N30" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O30" t="n">
-        <v>7.2</v>
+        <v>2.24</v>
       </c>
       <c r="P30" t="n">
-        <v>270</v>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>100</v>
+      </c>
       <c r="R30" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
         <v>47729</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="V30" t="n">
-        <v>1690546275</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1690593272</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y30" t="n">
+      <c r="U30" t="n">
         <v>500</v>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>10d</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:07:43</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>2023-07-28 09:11:15</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>light rain</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>10d</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:37</t>
+          <t>2023-07-28 22:14:32</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3506,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9656</v>
+        <v>10000</v>
       </c>
       <c r="C31" t="n">
         <v>-21600</v>
@@ -3519,74 +3529,74 @@
         <v>19.4285</v>
       </c>
       <c r="I31" t="n">
-        <v>293.84</v>
+        <v>292.97</v>
       </c>
       <c r="J31" t="n">
-        <v>293.4</v>
+        <v>292.34</v>
       </c>
       <c r="K31" t="n">
-        <v>292.4</v>
+        <v>288.4</v>
       </c>
       <c r="L31" t="n">
-        <v>294.11</v>
+        <v>293.12</v>
       </c>
       <c r="M31" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N31" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O31" t="n">
-        <v>7.2</v>
+        <v>2.24</v>
       </c>
       <c r="P31" t="n">
-        <v>270</v>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>100</v>
+      </c>
       <c r="R31" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
-      </c>
-      <c r="T31" t="n">
         <v>47729</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="V31" t="n">
-        <v>1690546275</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1690593272</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="U31" t="n">
         <v>500</v>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>10d</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:04:03</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>2023-07-28 09:11:15</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>light rain</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>10d</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:32</t>
+          <t>2023-07-28 22:14:32</t>
         </is>
       </c>
     </row>
@@ -3620,72 +3630,74 @@
         <v>37.7021</v>
       </c>
       <c r="I32" t="n">
-        <v>300.16</v>
+        <v>298.96</v>
       </c>
       <c r="J32" t="n">
-        <v>299.88</v>
+        <v>298.72</v>
       </c>
       <c r="K32" t="n">
-        <v>288.83</v>
+        <v>288.28</v>
       </c>
       <c r="L32" t="n">
-        <v>307.17</v>
+        <v>308.1</v>
       </c>
       <c r="M32" t="n">
         <v>1015</v>
       </c>
       <c r="N32" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O32" t="n">
         <v>6.17</v>
       </c>
       <c r="P32" t="n">
-        <v>290</v>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2016191</v>
-      </c>
-      <c r="U32" t="inlineStr">
+        <v>4774</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V32" t="n">
-        <v>1690549671</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1690600824</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="n">
+      <c r="U32" t="n">
         <v>800</v>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:10</t>
+        </is>
+      </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 10:07:51</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:12</t>
+          <t>2023-07-29 00:20:24</t>
         </is>
       </c>
     </row>
@@ -3719,72 +3731,74 @@
         <v>37.7021</v>
       </c>
       <c r="I33" t="n">
-        <v>300.31</v>
+        <v>298.96</v>
       </c>
       <c r="J33" t="n">
-        <v>299.98</v>
+        <v>298.72</v>
       </c>
       <c r="K33" t="n">
-        <v>288.83</v>
+        <v>288.28</v>
       </c>
       <c r="L33" t="n">
-        <v>307.17</v>
+        <v>308.1</v>
       </c>
       <c r="M33" t="n">
         <v>1015</v>
       </c>
       <c r="N33" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O33" t="n">
         <v>6.17</v>
       </c>
       <c r="P33" t="n">
-        <v>290</v>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2016191</v>
-      </c>
-      <c r="U33" t="inlineStr">
+        <v>4774</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V33" t="n">
-        <v>1690549671</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1690600824</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="n">
+      <c r="U33" t="n">
         <v>800</v>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:11</t>
+        </is>
+      </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 10:07:51</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:42</t>
+          <t>2023-07-29 00:20:24</t>
         </is>
       </c>
     </row>
@@ -3818,72 +3832,74 @@
         <v>37.7021</v>
       </c>
       <c r="I34" t="n">
-        <v>300.31</v>
+        <v>298.96</v>
       </c>
       <c r="J34" t="n">
-        <v>299.98</v>
+        <v>298.72</v>
       </c>
       <c r="K34" t="n">
-        <v>288.83</v>
+        <v>288.28</v>
       </c>
       <c r="L34" t="n">
-        <v>307.17</v>
+        <v>308.1</v>
       </c>
       <c r="M34" t="n">
         <v>1015</v>
       </c>
       <c r="N34" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O34" t="n">
         <v>6.17</v>
       </c>
       <c r="P34" t="n">
-        <v>290</v>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2016191</v>
-      </c>
-      <c r="U34" t="inlineStr">
+        <v>4774</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V34" t="n">
-        <v>1690549671</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1690600824</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="n">
+      <c r="U34" t="n">
         <v>800</v>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:11</t>
+        </is>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 10:07:51</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:43</t>
+          <t>2023-07-29 00:20:24</t>
         </is>
       </c>
     </row>
@@ -3917,72 +3933,74 @@
         <v>37.7021</v>
       </c>
       <c r="I35" t="n">
-        <v>300.31</v>
+        <v>298.96</v>
       </c>
       <c r="J35" t="n">
-        <v>299.98</v>
+        <v>298.72</v>
       </c>
       <c r="K35" t="n">
-        <v>288.83</v>
+        <v>288.28</v>
       </c>
       <c r="L35" t="n">
-        <v>307.17</v>
+        <v>308.1</v>
       </c>
       <c r="M35" t="n">
         <v>1015</v>
       </c>
       <c r="N35" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O35" t="n">
         <v>6.17</v>
       </c>
       <c r="P35" t="n">
-        <v>290</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2016191</v>
-      </c>
-      <c r="U35" t="inlineStr">
+        <v>4774</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V35" t="n">
-        <v>1690549671</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1690600824</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="n">
+      <c r="U35" t="n">
         <v>800</v>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:10</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 10:07:51</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:43</t>
+          <t>2023-07-29 00:20:24</t>
         </is>
       </c>
     </row>
@@ -4016,72 +4034,74 @@
         <v>37.7021</v>
       </c>
       <c r="I36" t="n">
-        <v>300.16</v>
+        <v>298.96</v>
       </c>
       <c r="J36" t="n">
-        <v>299.88</v>
+        <v>298.72</v>
       </c>
       <c r="K36" t="n">
-        <v>288.83</v>
+        <v>288.28</v>
       </c>
       <c r="L36" t="n">
-        <v>307.17</v>
+        <v>308.1</v>
       </c>
       <c r="M36" t="n">
         <v>1015</v>
       </c>
       <c r="N36" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O36" t="n">
         <v>6.17</v>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2016191</v>
-      </c>
-      <c r="U36" t="inlineStr">
+        <v>4774</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="V36" t="n">
-        <v>1690549671</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1690600824</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="n">
+      <c r="U36" t="n">
         <v>800</v>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:15</t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 10:07:51</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:13</t>
+          <t>2023-07-29 00:20:24</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4138,7 @@
         <v>293.99</v>
       </c>
       <c r="J37" t="n">
-        <v>293.8</v>
+        <v>293.7</v>
       </c>
       <c r="K37" t="n">
         <v>293.99</v>
@@ -4130,59 +4150,59 @@
         <v>1011</v>
       </c>
       <c r="N37" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O37" t="n">
-        <v>16.98</v>
+        <v>13.38</v>
       </c>
       <c r="P37" t="n">
         <v>310</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="n">
         <v>8862</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="V37" t="n">
-        <v>1690595476</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1690647769</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="n">
+      <c r="U37" t="n">
         <v>800</v>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:03:58</t>
+        </is>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 22:51:16</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:54</t>
+          <t>2023-07-29 13:22:49</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4239,7 @@
         <v>293.99</v>
       </c>
       <c r="J38" t="n">
-        <v>293.8</v>
+        <v>293.7</v>
       </c>
       <c r="K38" t="n">
         <v>293.99</v>
@@ -4231,59 +4251,59 @@
         <v>1011</v>
       </c>
       <c r="N38" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O38" t="n">
-        <v>16.98</v>
+        <v>13.38</v>
       </c>
       <c r="P38" t="n">
         <v>310</v>
       </c>
       <c r="Q38" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" t="n">
         <v>8862</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="V38" t="n">
-        <v>1690595476</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1690647769</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="n">
+      <c r="U38" t="n">
         <v>800</v>
       </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:17</t>
+        </is>
+      </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 22:51:16</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:05</t>
+          <t>2023-07-29 13:22:49</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4340,7 @@
         <v>293.99</v>
       </c>
       <c r="J39" t="n">
-        <v>293.8</v>
+        <v>293.7</v>
       </c>
       <c r="K39" t="n">
         <v>293.99</v>
@@ -4332,59 +4352,59 @@
         <v>1011</v>
       </c>
       <c r="N39" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O39" t="n">
-        <v>16.98</v>
+        <v>13.38</v>
       </c>
       <c r="P39" t="n">
         <v>310</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
-      </c>
-      <c r="T39" t="n">
         <v>8862</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="V39" t="n">
-        <v>1690595476</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1690647769</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="n">
+      <c r="U39" t="n">
         <v>800</v>
       </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:05</t>
+        </is>
+      </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 22:51:16</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:45</t>
+          <t>2023-07-29 13:22:49</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4441,7 @@
         <v>293.99</v>
       </c>
       <c r="J40" t="n">
-        <v>293.8</v>
+        <v>293.7</v>
       </c>
       <c r="K40" t="n">
         <v>293.99</v>
@@ -4433,59 +4453,59 @@
         <v>1011</v>
       </c>
       <c r="N40" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O40" t="n">
-        <v>16.98</v>
+        <v>13.38</v>
       </c>
       <c r="P40" t="n">
         <v>310</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" t="n">
         <v>8862</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="V40" t="n">
-        <v>1690595476</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1690647769</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
+      <c r="U40" t="n">
         <v>800</v>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:05</t>
+        </is>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 22:51:16</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:15:05</t>
+          <t>2023-07-29 13:22:49</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4542,7 @@
         <v>293.99</v>
       </c>
       <c r="J41" t="n">
-        <v>293.8</v>
+        <v>293.7</v>
       </c>
       <c r="K41" t="n">
         <v>293.99</v>
@@ -4534,59 +4554,59 @@
         <v>1011</v>
       </c>
       <c r="N41" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O41" t="n">
-        <v>16.98</v>
+        <v>13.38</v>
       </c>
       <c r="P41" t="n">
         <v>310</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" t="n">
         <v>8862</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="V41" t="n">
-        <v>1690595476</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1690647769</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
+      <c r="U41" t="n">
         <v>800</v>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:32</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>2023-07-28 22:51:16</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:18:43</t>
+          <t>2023-07-29 13:22:49</t>
         </is>
       </c>
     </row>
@@ -4620,72 +4640,74 @@
         <v>4.6097</v>
       </c>
       <c r="I42" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="J42" t="n">
-        <v>291.24</v>
+        <v>287.42</v>
       </c>
       <c r="K42" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="L42" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="M42" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N42" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O42" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="P42" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>75</v>
+      </c>
       <c r="R42" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="n">
         <v>8582</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="V42" t="n">
-        <v>1690541569</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1690585956</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="n">
+      <c r="U42" t="n">
         <v>803</v>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:36</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 07:52:49</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:19:17</t>
+          <t>2023-07-28 20:12:36</t>
         </is>
       </c>
     </row>
@@ -4719,72 +4741,74 @@
         <v>4.6097</v>
       </c>
       <c r="I43" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="J43" t="n">
-        <v>291.24</v>
+        <v>287.42</v>
       </c>
       <c r="K43" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="L43" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="M43" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N43" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O43" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="P43" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>75</v>
+      </c>
       <c r="R43" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" t="n">
         <v>8582</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="V43" t="n">
-        <v>1690541569</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1690585956</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="n">
+      <c r="U43" t="n">
         <v>803</v>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:06:08</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 07:52:49</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:19:17</t>
+          <t>2023-07-28 20:12:36</t>
         </is>
       </c>
     </row>
@@ -4818,72 +4842,74 @@
         <v>4.6097</v>
       </c>
       <c r="I44" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="J44" t="n">
-        <v>291.24</v>
+        <v>287.42</v>
       </c>
       <c r="K44" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="L44" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="M44" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N44" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O44" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="P44" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>75</v>
+      </c>
       <c r="R44" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" t="n">
         <v>8582</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="V44" t="n">
-        <v>1690541569</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1690585956</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
+      <c r="U44" t="n">
         <v>803</v>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:05:36</t>
+        </is>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 07:52:49</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:27</t>
+          <t>2023-07-28 20:12:36</t>
         </is>
       </c>
     </row>
@@ -4917,72 +4943,74 @@
         <v>4.6097</v>
       </c>
       <c r="I45" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="J45" t="n">
-        <v>291.24</v>
+        <v>287.42</v>
       </c>
       <c r="K45" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="L45" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="M45" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N45" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O45" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="P45" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>75</v>
+      </c>
       <c r="R45" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
-      </c>
-      <c r="T45" t="n">
         <v>8582</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="V45" t="n">
-        <v>1690541569</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1690585956</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="n">
+      <c r="U45" t="n">
         <v>803</v>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:06:08</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 07:52:49</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:19:22</t>
+          <t>2023-07-28 20:12:36</t>
         </is>
       </c>
     </row>
@@ -5016,72 +5044,74 @@
         <v>4.6097</v>
       </c>
       <c r="I46" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="J46" t="n">
-        <v>291.24</v>
+        <v>287.42</v>
       </c>
       <c r="K46" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="L46" t="n">
-        <v>291.88</v>
+        <v>287.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N46" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O46" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="P46" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>75</v>
+      </c>
       <c r="R46" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" t="n">
         <v>8582</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="V46" t="n">
-        <v>1690541569</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1690585956</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
+      <c r="U46" t="n">
         <v>803</v>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:29</t>
+        </is>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 07:52:49</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:19:17</t>
+          <t>2023-07-28 20:12:36</t>
         </is>
       </c>
     </row>
@@ -5115,72 +5145,74 @@
         <v>35.6895</v>
       </c>
       <c r="I47" t="n">
-        <v>301.41</v>
+        <v>304.68</v>
       </c>
       <c r="J47" t="n">
-        <v>304.93</v>
+        <v>310.01</v>
       </c>
       <c r="K47" t="n">
-        <v>299.05</v>
+        <v>302.62</v>
       </c>
       <c r="L47" t="n">
-        <v>302.92</v>
+        <v>306.37</v>
       </c>
       <c r="M47" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="N47" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O47" t="n">
-        <v>5.66</v>
+        <v>6.69</v>
       </c>
       <c r="P47" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>20</v>
+      </c>
       <c r="R47" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
-      </c>
-      <c r="T47" t="n">
         <v>2001249</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="V47" t="n">
-        <v>1690573569</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1690624144</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="n">
+      <c r="U47" t="n">
         <v>801</v>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>02d</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:31</t>
+        </is>
+      </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 16:46:09</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>02d</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:10</t>
+          <t>2023-07-29 06:49:04</t>
         </is>
       </c>
     </row>
@@ -5214,72 +5246,74 @@
         <v>35.6895</v>
       </c>
       <c r="I48" t="n">
-        <v>301.41</v>
+        <v>304.68</v>
       </c>
       <c r="J48" t="n">
-        <v>304.93</v>
+        <v>310.01</v>
       </c>
       <c r="K48" t="n">
-        <v>299.05</v>
+        <v>302.62</v>
       </c>
       <c r="L48" t="n">
-        <v>302.92</v>
+        <v>306.37</v>
       </c>
       <c r="M48" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="N48" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O48" t="n">
-        <v>5.66</v>
+        <v>6.69</v>
       </c>
       <c r="P48" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>20</v>
+      </c>
       <c r="R48" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
-      </c>
-      <c r="T48" t="n">
         <v>2001249</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="V48" t="n">
-        <v>1690573569</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1690624144</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="n">
+      <c r="U48" t="n">
         <v>801</v>
       </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>02d</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:31</t>
+        </is>
+      </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 16:46:09</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>02d</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:35</t>
+          <t>2023-07-29 06:49:04</t>
         </is>
       </c>
     </row>
@@ -5313,72 +5347,74 @@
         <v>35.6895</v>
       </c>
       <c r="I49" t="n">
-        <v>301.41</v>
+        <v>304.68</v>
       </c>
       <c r="J49" t="n">
-        <v>304.93</v>
+        <v>310.01</v>
       </c>
       <c r="K49" t="n">
-        <v>299.05</v>
+        <v>302.62</v>
       </c>
       <c r="L49" t="n">
-        <v>302.92</v>
+        <v>306.37</v>
       </c>
       <c r="M49" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="N49" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O49" t="n">
-        <v>5.66</v>
+        <v>6.69</v>
       </c>
       <c r="P49" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>20</v>
+      </c>
       <c r="R49" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
-      </c>
-      <c r="T49" t="n">
         <v>2001249</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="V49" t="n">
-        <v>1690573569</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1690624144</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="n">
+      <c r="U49" t="n">
         <v>801</v>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>02d</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:31</t>
+        </is>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 16:46:09</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>02d</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:02</t>
+          <t>2023-07-29 06:49:04</t>
         </is>
       </c>
     </row>
@@ -5412,72 +5448,74 @@
         <v>35.6895</v>
       </c>
       <c r="I50" t="n">
-        <v>301.41</v>
+        <v>304.68</v>
       </c>
       <c r="J50" t="n">
-        <v>304.93</v>
+        <v>310.01</v>
       </c>
       <c r="K50" t="n">
-        <v>299.05</v>
+        <v>302.62</v>
       </c>
       <c r="L50" t="n">
-        <v>302.92</v>
+        <v>306.37</v>
       </c>
       <c r="M50" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="N50" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O50" t="n">
-        <v>5.66</v>
+        <v>6.69</v>
       </c>
       <c r="P50" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>20</v>
+      </c>
       <c r="R50" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
-      </c>
-      <c r="T50" t="n">
         <v>2001249</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="V50" t="n">
-        <v>1690573569</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1690624144</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="n">
+      <c r="U50" t="n">
         <v>801</v>
       </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>02d</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:08:31</t>
+        </is>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 16:46:09</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>02d</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:17:02</t>
+          <t>2023-07-29 06:49:04</t>
         </is>
       </c>
     </row>
@@ -5511,72 +5549,74 @@
         <v>35.6895</v>
       </c>
       <c r="I51" t="n">
-        <v>301.41</v>
+        <v>304.6</v>
       </c>
       <c r="J51" t="n">
-        <v>304.93</v>
+        <v>309.82</v>
       </c>
       <c r="K51" t="n">
-        <v>299.05</v>
+        <v>302.62</v>
       </c>
       <c r="L51" t="n">
-        <v>302.92</v>
+        <v>306.37</v>
       </c>
       <c r="M51" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="N51" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O51" t="n">
-        <v>5.66</v>
+        <v>6.69</v>
       </c>
       <c r="P51" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>20</v>
+      </c>
       <c r="R51" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
-      </c>
-      <c r="T51" t="n">
         <v>2001249</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="V51" t="n">
-        <v>1690573569</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1690624144</v>
-      </c>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="n">
+      <c r="U51" t="n">
         <v>801</v>
       </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>02d</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-07-28 21:04:47</t>
+        </is>
+      </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>2023-07-28 16:46:09</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>02d</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>2023-07-28 18:14:53</t>
+          <t>2023-07-29 06:49:04</t>
         </is>
       </c>
     </row>

--- a/clima.xlsx
+++ b/clima.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>Latitud</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lon</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>timezone</t>
+          <t>ciudad</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>current.temp</t>
+          <t>Temperatura Actual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>current.feels_like</t>
+          <t>Sensacion termica actual</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>current.pressure</t>
+          <t>Presion actual</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>current.dew_point</t>
+          <t>Punto de Rocio actual</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -491,27 +491,27 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>current.visibility</t>
+          <t>Visibilidad Actual</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>current.wind_speed</t>
+          <t>Velocidad del viento actual</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>current.wind_deg</t>
+          <t>Grados del Viento actual</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>current.wind_gust</t>
+          <t>current.rain.1h</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>current.rain.1h</t>
+          <t>Rafaga del viento</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -639,41 +639,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>3600</v>
       </c>
       <c r="E2" t="n">
-        <v>289.29</v>
+        <v>19.77</v>
       </c>
       <c r="F2" t="n">
-        <v>289.1</v>
+        <v>19.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>286.22</v>
+        <v>13.47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L2" t="n">
         <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>2.57</v>
+        <v>5.66</v>
       </c>
       <c r="N2" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -681,10 +681,10 @@
         <v>1691107200</v>
       </c>
       <c r="R2" t="n">
-        <v>289.69</v>
+        <v>16.54</v>
       </c>
       <c r="S2" t="n">
-        <v>289.49</v>
+        <v>16.34</v>
       </c>
       <c r="T2" t="n">
         <v>1010</v>
@@ -693,7 +693,7 @@
         <v>80</v>
       </c>
       <c r="V2" t="n">
-        <v>286.23</v>
+        <v>13.08</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="AH2" t="n">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>few clouds</t>
+          <t>overcast clouds</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>02n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>3600</v>
       </c>
       <c r="E3" t="n">
-        <v>288.82</v>
+        <v>20.5</v>
       </c>
       <c r="F3" t="n">
-        <v>288.9</v>
+        <v>20.09</v>
       </c>
       <c r="G3" t="n">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="H3" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I3" t="n">
-        <v>287.86</v>
+        <v>11.7</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="K3" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L3" t="n">
         <v>10000</v>
@@ -802,7 +802,7 @@
         <v>3.6</v>
       </c>
       <c r="N3" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -810,10 +810,10 @@
         <v>1691020800</v>
       </c>
       <c r="R3" t="n">
-        <v>289.19</v>
+        <v>16.04</v>
       </c>
       <c r="S3" t="n">
-        <v>289.23</v>
+        <v>16.08</v>
       </c>
       <c r="T3" t="n">
         <v>993</v>
@@ -822,7 +822,7 @@
         <v>91</v>
       </c>
       <c r="V3" t="n">
-        <v>287.72</v>
+        <v>14.57</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="AH3" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
@@ -871,17 +871,17 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>scattered clouds</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>03d</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -899,52 +899,54 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3600</v>
       </c>
       <c r="E4" t="n">
-        <v>289.11</v>
+        <v>16.7</v>
       </c>
       <c r="F4" t="n">
-        <v>289.06</v>
+        <v>16.78</v>
       </c>
       <c r="G4" t="n">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="H4" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I4" t="n">
-        <v>287.13</v>
+        <v>15.05</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="K4" t="n">
         <v>75</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>3.09</v>
+        <v>5.14</v>
       </c>
       <c r="N4" t="n">
-        <v>150</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>1690934400</v>
       </c>
       <c r="R4" t="n">
-        <v>289.33</v>
+        <v>16.18</v>
       </c>
       <c r="S4" t="n">
-        <v>289.22</v>
+        <v>16.07</v>
       </c>
       <c r="T4" t="n">
         <v>995</v>
@@ -953,7 +955,7 @@
         <v>85</v>
       </c>
       <c r="V4" t="n">
-        <v>286.81</v>
+        <v>13.66</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -991,26 +993,26 @@
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>803</v>
+        <v>501</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>moderate rain</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>10d</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1028,32 +1030,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>3600</v>
       </c>
       <c r="E5" t="n">
-        <v>288.1</v>
+        <v>21.42</v>
       </c>
       <c r="F5" t="n">
-        <v>287.97</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I5" t="n">
-        <v>286.3</v>
+        <v>11.45</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L5" t="n">
         <v>10000</v>
@@ -1062,7 +1064,7 @@
         <v>5.66</v>
       </c>
       <c r="N5" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -1070,10 +1072,10 @@
         <v>1690848000</v>
       </c>
       <c r="R5" t="n">
-        <v>288.49</v>
+        <v>15.34</v>
       </c>
       <c r="S5" t="n">
-        <v>288.38</v>
+        <v>15.23</v>
       </c>
       <c r="T5" t="n">
         <v>1000</v>
@@ -1082,7 +1084,7 @@
         <v>88</v>
       </c>
       <c r="V5" t="n">
-        <v>286.52</v>
+        <v>13.37</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1129,17 +1131,17 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>few clouds</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>02n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1157,52 +1159,56 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Europe/London</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>3600</v>
       </c>
       <c r="E6" t="n">
-        <v>289.75</v>
+        <v>18.32</v>
       </c>
       <c r="F6" t="n">
-        <v>289.89</v>
+        <v>18.35</v>
       </c>
       <c r="G6" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H6" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I6" t="n">
-        <v>288.61</v>
+        <v>15.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="K6" t="n">
         <v>100</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>5.14</v>
+        <v>3.58</v>
       </c>
       <c r="N6" t="n">
-        <v>230</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.81</v>
+      </c>
       <c r="Q6" t="n">
         <v>1690761600</v>
       </c>
       <c r="R6" t="n">
-        <v>289.25</v>
+        <v>16.1</v>
       </c>
       <c r="S6" t="n">
-        <v>289.32</v>
+        <v>16.17</v>
       </c>
       <c r="T6" t="n">
         <v>1009</v>
@@ -1211,7 +1217,7 @@
         <v>92</v>
       </c>
       <c r="V6" t="n">
-        <v>287.95</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1253,26 +1259,26 @@
         </is>
       </c>
       <c r="AH6" t="n">
-        <v>804</v>
+        <v>501</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
+          <t>moderate rain</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>10d</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1290,54 +1296,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>America/New_York</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>-14400</v>
       </c>
       <c r="E7" t="n">
-        <v>295.88</v>
+        <v>22.88</v>
       </c>
       <c r="F7" t="n">
-        <v>295.91</v>
+        <v>23.18</v>
       </c>
       <c r="G7" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
-        <v>288.97</v>
+        <v>18.22</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L7" t="n">
         <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>6.69</v>
+        <v>5.14</v>
       </c>
       <c r="N7" t="n">
-        <v>180</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10.29</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
         <v>1691107200</v>
       </c>
       <c r="R7" t="n">
-        <v>296.09</v>
+        <v>22.94</v>
       </c>
       <c r="S7" t="n">
-        <v>296.11</v>
+        <v>22.96</v>
       </c>
       <c r="T7" t="n">
         <v>1017</v>
@@ -1346,7 +1350,7 @@
         <v>64</v>
       </c>
       <c r="V7" t="n">
-        <v>288.92</v>
+        <v>15.77</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1386,7 +1390,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1395,22 +1399,22 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2023-08-03 21:10:04</t>
+          <t>2023-08-04 21:08:57</t>
         </is>
       </c>
     </row>
@@ -1423,29 +1427,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>America/New_York</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>-14400</v>
       </c>
       <c r="E8" t="n">
-        <v>294.97</v>
+        <v>22.37</v>
       </c>
       <c r="F8" t="n">
-        <v>294.75</v>
+        <v>22.31</v>
       </c>
       <c r="G8" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H8" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" t="n">
-        <v>286.61</v>
+        <v>14.99</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1454,25 +1458,23 @@
         <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="N8" t="n">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="O8" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="P8" t="n">
         <v>0.25</v>
       </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
         <v>1691020800</v>
       </c>
       <c r="R8" t="n">
-        <v>295.54</v>
+        <v>22.39</v>
       </c>
       <c r="S8" t="n">
-        <v>295.32</v>
+        <v>22.17</v>
       </c>
       <c r="T8" t="n">
         <v>1022</v>
@@ -1481,7 +1483,7 @@
         <v>57</v>
       </c>
       <c r="V8" t="n">
-        <v>286.61</v>
+        <v>13.46</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1535,17 +1537,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>10n</t>
+          <t>10d</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2023-08-02 21:11:10</t>
+          <t>2023-08-03 21:10:04</t>
         </is>
       </c>
     </row>
@@ -1558,29 +1560,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>America/New_York</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>-14400</v>
       </c>
       <c r="E9" t="n">
-        <v>296.94</v>
+        <v>21.92</v>
       </c>
       <c r="F9" t="n">
-        <v>296.52</v>
+        <v>21.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="H9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>283.97</v>
+        <v>10.42</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1589,23 +1591,21 @@
         <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>5.81</v>
+        <v>4.12</v>
       </c>
       <c r="N9" t="n">
-        <v>41</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7.15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
         <v>1690934400</v>
       </c>
       <c r="R9" t="n">
-        <v>297.04</v>
+        <v>23.89</v>
       </c>
       <c r="S9" t="n">
-        <v>296.74</v>
+        <v>23.59</v>
       </c>
       <c r="T9" t="n">
         <v>1021</v>
@@ -1614,7 +1614,7 @@
         <v>48</v>
       </c>
       <c r="V9" t="n">
-        <v>285.37</v>
+        <v>12.22</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1668,17 +1668,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2023-08-01 21:12:14</t>
+          <t>2023-08-02 21:11:10</t>
         </is>
       </c>
     </row>
@@ -1691,29 +1691,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>America/New_York</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>-14400</v>
       </c>
       <c r="E10" t="n">
-        <v>297.99</v>
+        <v>22.36</v>
       </c>
       <c r="F10" t="n">
-        <v>297.97</v>
+        <v>21.98</v>
       </c>
       <c r="G10" t="n">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="H10" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I10" t="n">
-        <v>288.34</v>
+        <v>11.74</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1722,21 +1722,23 @@
         <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>5.14</v>
+        <v>5.36</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>8.94</v>
+      </c>
       <c r="Q10" t="n">
         <v>1690848000</v>
       </c>
       <c r="R10" t="n">
-        <v>298.76</v>
+        <v>25.61</v>
       </c>
       <c r="S10" t="n">
-        <v>298.76</v>
+        <v>25.61</v>
       </c>
       <c r="T10" t="n">
         <v>1016</v>
@@ -1745,7 +1747,7 @@
         <v>53</v>
       </c>
       <c r="V10" t="n">
-        <v>288.48</v>
+        <v>15.33</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1797,17 +1799,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2023-07-31 21:13:16</t>
+          <t>2023-08-01 21:12:14</t>
         </is>
       </c>
     </row>
@@ -1820,29 +1822,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>America/New_York</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>-14400</v>
       </c>
       <c r="E11" t="n">
-        <v>297.48</v>
+        <v>23.57</v>
       </c>
       <c r="F11" t="n">
-        <v>297.12</v>
+        <v>23.37</v>
       </c>
       <c r="G11" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="H11" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I11" t="n">
-        <v>284.46</v>
+        <v>13.44</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1856,16 +1858,18 @@
       <c r="N11" t="n">
         <v>310</v>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0.25</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
         <v>1690761600</v>
       </c>
       <c r="R11" t="n">
-        <v>297.86</v>
+        <v>24.71</v>
       </c>
       <c r="S11" t="n">
-        <v>297.38</v>
+        <v>24.23</v>
       </c>
       <c r="T11" t="n">
         <v>1014</v>
@@ -1874,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="V11" t="n">
-        <v>282.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1914,31 +1918,31 @@
         </is>
       </c>
       <c r="AH11" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>light rain</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>10d</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2023-07-30 21:14:17</t>
+          <t>2023-07-31 21:13:16</t>
         </is>
       </c>
     </row>
@@ -1951,29 +1955,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>America/Argentina/Cordoba</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>-10800</v>
       </c>
       <c r="E12" t="n">
-        <v>285.67</v>
+        <v>14.47</v>
       </c>
       <c r="F12" t="n">
-        <v>284.23</v>
+        <v>13.12</v>
       </c>
       <c r="G12" t="n">
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="H12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I12" t="n">
-        <v>274.97</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1982,7 +1986,7 @@
         <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>0.51</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1993,10 +1997,10 @@
         <v>1691107200</v>
       </c>
       <c r="R12" t="n">
-        <v>286.46</v>
+        <v>13.31</v>
       </c>
       <c r="S12" t="n">
-        <v>285.1</v>
+        <v>11.95</v>
       </c>
       <c r="T12" t="n">
         <v>992</v>
@@ -2005,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="V12" t="n">
-        <v>275.69</v>
+        <v>2.54</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -2057,17 +2061,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2023-08-03 18:42:31</t>
+          <t>2023-08-04 18:43:10</t>
         </is>
       </c>
     </row>
@@ -2080,29 +2084,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>America/Argentina/Cordoba</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>-10800</v>
       </c>
       <c r="E13" t="n">
-        <v>291.84</v>
+        <v>15.01</v>
       </c>
       <c r="F13" t="n">
-        <v>290.91</v>
+        <v>13.35</v>
       </c>
       <c r="G13" t="n">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="H13" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
-        <v>279.35</v>
+        <v>-2.13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="K13" t="n">
         <v>100</v>
@@ -2111,23 +2115,21 @@
         <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>8.75</v>
+        <v>4.12</v>
       </c>
       <c r="N13" t="n">
-        <v>200</v>
-      </c>
-      <c r="O13" t="n">
-        <v>13.89</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
         <v>1691020800</v>
       </c>
       <c r="R13" t="n">
-        <v>291.84</v>
+        <v>18.69</v>
       </c>
       <c r="S13" t="n">
-        <v>291.17</v>
+        <v>18.02</v>
       </c>
       <c r="T13" t="n">
         <v>993</v>
@@ -2136,7 +2138,7 @@
         <v>54</v>
       </c>
       <c r="V13" t="n">
-        <v>282.35</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2188,17 +2190,17 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2023-08-02 18:41:53</t>
+          <t>2023-08-03 18:42:31</t>
         </is>
       </c>
     </row>
@@ -2211,41 +2213,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>America/Argentina/Cordoba</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>-10800</v>
       </c>
       <c r="E14" t="n">
-        <v>298.57</v>
+        <v>23.75</v>
       </c>
       <c r="F14" t="n">
-        <v>298.24</v>
+        <v>23.56</v>
       </c>
       <c r="G14" t="n">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H14" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I14" t="n">
-        <v>284.37</v>
+        <v>13.61</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>3.09</v>
+        <v>2.57</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -2253,10 +2255,10 @@
         <v>1690934400</v>
       </c>
       <c r="R14" t="n">
-        <v>297.1</v>
+        <v>23.95</v>
       </c>
       <c r="S14" t="n">
-        <v>296.67</v>
+        <v>23.52</v>
       </c>
       <c r="T14" t="n">
         <v>985</v>
@@ -2265,7 +2267,7 @@
         <v>43</v>
       </c>
       <c r="V14" t="n">
-        <v>283.77</v>
+        <v>10.62</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2317,17 +2319,17 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2023-08-01 18:41:15</t>
+          <t>2023-08-02 18:41:53</t>
         </is>
       </c>
     </row>
@@ -2340,41 +2342,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>America/Argentina/Cordoba</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>-10800</v>
       </c>
       <c r="E15" t="n">
-        <v>293.23</v>
+        <v>21.47</v>
       </c>
       <c r="F15" t="n">
-        <v>293.04</v>
+        <v>21.24</v>
       </c>
       <c r="G15" t="n">
-        <v>987</v>
+        <v>1012</v>
       </c>
       <c r="H15" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I15" t="n">
-        <v>286.92</v>
+        <v>13.39</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>4.12</v>
+        <v>1.54</v>
       </c>
       <c r="N15" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -2382,10 +2384,10 @@
         <v>1690848000</v>
       </c>
       <c r="R15" t="n">
-        <v>293.53</v>
+        <v>20.38</v>
       </c>
       <c r="S15" t="n">
-        <v>293.29</v>
+        <v>20.14</v>
       </c>
       <c r="T15" t="n">
         <v>988</v>
@@ -2394,7 +2396,7 @@
         <v>64</v>
       </c>
       <c r="V15" t="n">
-        <v>286.5</v>
+        <v>13.35</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2432,31 +2434,31 @@
         </is>
       </c>
       <c r="AH15" t="n">
-        <v>800</v>
+        <v>711</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Smoke</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>50d</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>2023-07-31 18:40:37</t>
+          <t>2023-08-01 18:41:15</t>
         </is>
       </c>
     </row>
@@ -2469,52 +2471,54 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>America/Argentina/Cordoba</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>-10800</v>
       </c>
       <c r="E16" t="n">
-        <v>287.17</v>
+        <v>17.36</v>
       </c>
       <c r="F16" t="n">
-        <v>286.09</v>
+        <v>16.46</v>
       </c>
       <c r="G16" t="n">
-        <v>993</v>
+        <v>1019</v>
       </c>
       <c r="H16" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I16" t="n">
-        <v>278.54</v>
+        <v>6.85</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L16" t="n">
         <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>4.73</v>
+      </c>
       <c r="Q16" t="n">
         <v>1690761600</v>
       </c>
       <c r="R16" t="n">
-        <v>290.64</v>
+        <v>17.49</v>
       </c>
       <c r="S16" t="n">
-        <v>289.65</v>
+        <v>16.5</v>
       </c>
       <c r="T16" t="n">
         <v>1019</v>
@@ -2523,7 +2527,7 @@
         <v>46</v>
       </c>
       <c r="V16" t="n">
-        <v>278.91</v>
+        <v>5.76</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2563,31 +2567,31 @@
         </is>
       </c>
       <c r="AH16" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>overcast clouds</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>2023-07-30 18:39:59</t>
+          <t>2023-07-31 18:40:37</t>
         </is>
       </c>
     </row>
@@ -2600,29 +2604,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Asia/Taipei</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>28800</v>
       </c>
       <c r="E17" t="n">
-        <v>303.38</v>
+        <v>30.77</v>
       </c>
       <c r="F17" t="n">
-        <v>305.81</v>
+        <v>32.43</v>
       </c>
       <c r="G17" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H17" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I17" t="n">
-        <v>293.92</v>
+        <v>19.47</v>
       </c>
       <c r="J17" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>75</v>
@@ -2631,25 +2635,21 @@
         <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>9.26</v>
+        <v>6.17</v>
       </c>
       <c r="N17" t="n">
         <v>270</v>
       </c>
-      <c r="O17" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.15</v>
-      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
         <v>1691107200</v>
       </c>
       <c r="R17" t="n">
-        <v>303.18</v>
+        <v>30.03</v>
       </c>
       <c r="S17" t="n">
-        <v>305.46</v>
+        <v>32.31</v>
       </c>
       <c r="T17" t="n">
         <v>997</v>
@@ -2658,7 +2658,7 @@
         <v>57</v>
       </c>
       <c r="V17" t="n">
-        <v>293.73</v>
+        <v>20.58</v>
       </c>
       <c r="W17" t="n">
         <v>0.51</v>
@@ -2700,26 +2700,26 @@
         </is>
       </c>
       <c r="AH17" t="n">
-        <v>501</v>
+        <v>803</v>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>moderate rain</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>10d</t>
+          <t>04n</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
@@ -2737,56 +2737,56 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Asia/Taipei</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>28800</v>
       </c>
       <c r="E18" t="n">
-        <v>302.41</v>
+        <v>29.32</v>
       </c>
       <c r="F18" t="n">
-        <v>303.56</v>
+        <v>31.1</v>
       </c>
       <c r="G18" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H18" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I18" t="n">
-        <v>291.85</v>
+        <v>19.92</v>
       </c>
       <c r="J18" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>75</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>14.92</v>
+        <v>8.23</v>
       </c>
       <c r="N18" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="O18" t="n">
-        <v>20.06</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>4.21</v>
+        <v>14.4</v>
       </c>
       <c r="Q18" t="n">
         <v>1691020800</v>
       </c>
       <c r="R18" t="n">
-        <v>302.73</v>
+        <v>29.58</v>
       </c>
       <c r="S18" t="n">
-        <v>303.88</v>
+        <v>30.73</v>
       </c>
       <c r="T18" t="n">
         <v>995</v>
@@ -2795,7 +2795,7 @@
         <v>52</v>
       </c>
       <c r="V18" t="n">
-        <v>291.84</v>
+        <v>18.69</v>
       </c>
       <c r="W18" t="n">
         <v>0.29</v>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>09d</t>
+          <t>09n</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -2874,52 +2874,56 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Asia/Taipei</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>28800</v>
       </c>
       <c r="E19" t="n">
-        <v>301.94</v>
+        <v>28.64</v>
       </c>
       <c r="F19" t="n">
-        <v>307.52</v>
+        <v>30.72</v>
       </c>
       <c r="G19" t="n">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H19" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I19" t="n">
-        <v>298.35</v>
+        <v>20.64</v>
       </c>
       <c r="J19" t="n">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>75</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>4.63</v>
+        <v>6.17</v>
       </c>
       <c r="N19" t="n">
-        <v>290</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11.32</v>
+      </c>
       <c r="Q19" t="n">
         <v>1690934400</v>
       </c>
       <c r="R19" t="n">
-        <v>301.94</v>
+        <v>28.79</v>
       </c>
       <c r="S19" t="n">
-        <v>307.94</v>
+        <v>34.79</v>
       </c>
       <c r="T19" t="n">
         <v>1001</v>
@@ -2928,7 +2932,7 @@
         <v>83</v>
       </c>
       <c r="V19" t="n">
-        <v>298.76</v>
+        <v>25.61</v>
       </c>
       <c r="W19" t="n">
         <v>3.14</v>
@@ -2966,26 +2970,26 @@
         </is>
       </c>
       <c r="AH19" t="n">
-        <v>803</v>
+        <v>520</v>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>light intensity shower rain</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>04d</t>
+          <t>09n</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
@@ -3003,54 +3007,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Asia/Taipei</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>28800</v>
       </c>
       <c r="E20" t="n">
-        <v>302.02</v>
+        <v>28.1</v>
       </c>
       <c r="F20" t="n">
-        <v>305.6</v>
+        <v>32.35</v>
       </c>
       <c r="G20" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I20" t="n">
-        <v>296</v>
+        <v>24.32</v>
       </c>
       <c r="J20" t="n">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>75</v>
       </c>
       <c r="L20" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="N20" t="n">
-        <v>190</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4.47</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
         <v>1690848000</v>
       </c>
       <c r="R20" t="n">
-        <v>300.77</v>
+        <v>27.62</v>
       </c>
       <c r="S20" t="n">
-        <v>302.77</v>
+        <v>29.62</v>
       </c>
       <c r="T20" t="n">
         <v>1004</v>
@@ -3059,7 +3061,7 @@
         <v>67</v>
       </c>
       <c r="V20" t="n">
-        <v>294.09</v>
+        <v>20.94</v>
       </c>
       <c r="W20" t="n">
         <v>3.18</v>
@@ -3113,12 +3115,12 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>04d</t>
+          <t>04n</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -3136,41 +3138,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Asia/Taipei</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>28800</v>
       </c>
       <c r="E21" t="n">
-        <v>303.15</v>
+        <v>27.88</v>
       </c>
       <c r="F21" t="n">
-        <v>306.18</v>
+        <v>32.4</v>
       </c>
       <c r="G21" t="n">
         <v>1006</v>
       </c>
       <c r="H21" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I21" t="n">
-        <v>294.81</v>
+        <v>24.92</v>
       </c>
       <c r="J21" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L21" t="n">
         <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>2.06</v>
+        <v>2.57</v>
       </c>
       <c r="N21" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3178,10 +3180,10 @@
         <v>1690761600</v>
       </c>
       <c r="R21" t="n">
-        <v>301.25</v>
+        <v>28.1</v>
       </c>
       <c r="S21" t="n">
-        <v>305.99</v>
+        <v>32.84</v>
       </c>
       <c r="T21" t="n">
         <v>1008</v>
@@ -3190,7 +3192,7 @@
         <v>83</v>
       </c>
       <c r="V21" t="n">
-        <v>298.09</v>
+        <v>24.94</v>
       </c>
       <c r="W21" t="n">
         <v>0.76</v>
@@ -3230,7 +3232,7 @@
         </is>
       </c>
       <c r="AH21" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
@@ -3239,17 +3241,17 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>few clouds</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>04d</t>
+          <t>02n</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
@@ -3267,35 +3269,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>America/Argentina/Buenos_Aires</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>-10800</v>
       </c>
       <c r="E22" t="n">
-        <v>284.5</v>
+        <v>11.8</v>
       </c>
       <c r="F22" t="n">
-        <v>283.62</v>
+        <v>10.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H22" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I22" t="n">
-        <v>280.04</v>
+        <v>5.88</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="K22" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
         <v>8.94</v>
@@ -3303,18 +3305,18 @@
       <c r="N22" t="n">
         <v>140</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
         <v>15.2</v>
       </c>
-      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
         <v>1691107200</v>
       </c>
       <c r="R22" t="n">
-        <v>284.76</v>
+        <v>11.61</v>
       </c>
       <c r="S22" t="n">
-        <v>283.88</v>
+        <v>10.73</v>
       </c>
       <c r="T22" t="n">
         <v>1022</v>
@@ -3323,7 +3325,7 @@
         <v>73</v>
       </c>
       <c r="V22" t="n">
-        <v>280.09</v>
+        <v>6.94</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -3363,31 +3365,31 @@
         </is>
       </c>
       <c r="AH22" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Clear</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>clear sky</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>2023-08-03 18:13:35</t>
+          <t>2023-08-04 18:14:20</t>
         </is>
       </c>
     </row>
@@ -3400,54 +3402,54 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>America/Argentina/Buenos_Aires</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>-10800</v>
       </c>
       <c r="E23" t="n">
-        <v>288.23</v>
+        <v>9.66</v>
       </c>
       <c r="F23" t="n">
-        <v>286.86</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="H23" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>275.09</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>7.6</v>
+        <v>8.94</v>
       </c>
       <c r="N23" t="n">
-        <v>150</v>
-      </c>
-      <c r="O23" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>15.2</v>
+      </c>
       <c r="Q23" t="n">
         <v>1691020800</v>
       </c>
       <c r="R23" t="n">
-        <v>289.45</v>
+        <v>16.3</v>
       </c>
       <c r="S23" t="n">
-        <v>288.26</v>
+        <v>15.11</v>
       </c>
       <c r="T23" t="n">
         <v>1020</v>
@@ -3456,7 +3458,7 @@
         <v>43</v>
       </c>
       <c r="V23" t="n">
-        <v>276.86</v>
+        <v>3.71</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3496,31 +3498,31 @@
         </is>
       </c>
       <c r="AH23" t="n">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Clear</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>few clouds</t>
+          <t>clear sky</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>02n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>2023-08-02 18:12:51</t>
+          <t>2023-08-03 18:13:35</t>
         </is>
       </c>
     </row>
@@ -3533,29 +3535,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>America/Argentina/Buenos_Aires</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>-10800</v>
       </c>
       <c r="E24" t="n">
-        <v>294.13</v>
+        <v>20.33</v>
       </c>
       <c r="F24" t="n">
-        <v>294.48</v>
+        <v>20.53</v>
       </c>
       <c r="G24" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H24" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I24" t="n">
-        <v>291.32</v>
+        <v>16.96</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -3564,23 +3566,23 @@
         <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>1.34</v>
+        <v>3.58</v>
       </c>
       <c r="N24" t="n">
-        <v>110</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
+        <v>340</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q24" t="n">
         <v>1690934400</v>
       </c>
       <c r="R24" t="n">
-        <v>294.32</v>
+        <v>21.17</v>
       </c>
       <c r="S24" t="n">
-        <v>294.63</v>
+        <v>21.48</v>
       </c>
       <c r="T24" t="n">
         <v>1013</v>
@@ -3589,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="V24" t="n">
-        <v>291.13</v>
+        <v>17.98</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3643,17 +3645,17 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>2023-08-01 18:12:07</t>
+          <t>2023-08-02 18:12:51</t>
         </is>
       </c>
     </row>
@@ -3666,52 +3668,54 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>America/Argentina/Buenos_Aires</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>-10800</v>
       </c>
       <c r="E25" t="n">
-        <v>289.46</v>
+        <v>17.91</v>
       </c>
       <c r="F25" t="n">
-        <v>289.16</v>
+        <v>18.05</v>
       </c>
       <c r="G25" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H25" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I25" t="n">
-        <v>285.42</v>
+        <v>15.9</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>3.09</v>
+        <v>2.24</v>
       </c>
       <c r="N25" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
       <c r="Q25" t="n">
         <v>1690848000</v>
       </c>
       <c r="R25" t="n">
-        <v>289.47</v>
+        <v>16.32</v>
       </c>
       <c r="S25" t="n">
-        <v>289.25</v>
+        <v>16.1</v>
       </c>
       <c r="T25" t="n">
         <v>1018</v>
@@ -3720,7 +3724,7 @@
         <v>80</v>
       </c>
       <c r="V25" t="n">
-        <v>286.02</v>
+        <v>12.87</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3774,17 +3778,17 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>2023-07-31 18:11:24</t>
+          <t>2023-08-01 18:12:07</t>
         </is>
       </c>
     </row>
@@ -3797,32 +3801,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>America/Argentina/Buenos_Aires</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>-10800</v>
       </c>
       <c r="E26" t="n">
-        <v>287.85</v>
+        <v>14.91</v>
       </c>
       <c r="F26" t="n">
-        <v>287.54</v>
+        <v>14.65</v>
       </c>
       <c r="G26" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="H26" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" t="n">
-        <v>285</v>
+        <v>12.23</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>10000</v>
@@ -3833,18 +3837,18 @@
       <c r="N26" t="n">
         <v>100</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
       <c r="Q26" t="n">
         <v>1690761600</v>
       </c>
       <c r="R26" t="n">
-        <v>287.75</v>
+        <v>14.6</v>
       </c>
       <c r="S26" t="n">
-        <v>287.17</v>
+        <v>14.02</v>
       </c>
       <c r="T26" t="n">
         <v>1020</v>
@@ -3853,7 +3857,7 @@
         <v>73</v>
       </c>
       <c r="V26" t="n">
-        <v>282.97</v>
+        <v>9.82</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -3893,31 +3897,31 @@
         </is>
       </c>
       <c r="AH26" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>overcast clouds</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>2023-07-30 18:10:40</t>
+          <t>2023-07-31 18:11:24</t>
         </is>
       </c>
     </row>
@@ -3930,41 +3934,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>America/Mexico_City</t>
+          <t>Mexico DF</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>-18000</v>
       </c>
       <c r="E27" t="n">
-        <v>290.9</v>
+        <v>16.73</v>
       </c>
       <c r="F27" t="n">
-        <v>290.61</v>
+        <v>16.57</v>
       </c>
       <c r="G27" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="H27" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I27" t="n">
-        <v>285.79</v>
+        <v>13.46</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K27" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>6.69</v>
+        <v>2.57</v>
       </c>
       <c r="N27" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -3972,10 +3976,10 @@
         <v>1691107200</v>
       </c>
       <c r="R27" t="n">
-        <v>290.9</v>
+        <v>17.75</v>
       </c>
       <c r="S27" t="n">
-        <v>290.61</v>
+        <v>17.46</v>
       </c>
       <c r="T27" t="n">
         <v>1025</v>
@@ -3984,7 +3988,7 @@
         <v>72</v>
       </c>
       <c r="V27" t="n">
-        <v>285.79</v>
+        <v>12.64</v>
       </c>
       <c r="W27" t="n">
         <v>0.27</v>
@@ -4022,31 +4026,31 @@
         </is>
       </c>
       <c r="AH27" t="n">
-        <v>803</v>
+        <v>500</v>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>light rain</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>04d</t>
+          <t>10d</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>2023-08-03 22:11:57</t>
+          <t>2023-08-04 22:11:27</t>
         </is>
       </c>
     </row>
@@ -4059,29 +4063,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>America/Mexico_City</t>
+          <t>Mexico DF</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>-18000</v>
       </c>
       <c r="E28" t="n">
-        <v>290.9</v>
+        <v>15.62</v>
       </c>
       <c r="F28" t="n">
-        <v>290.61</v>
+        <v>15.3</v>
       </c>
       <c r="G28" t="n">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="H28" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I28" t="n">
-        <v>285.79</v>
+        <v>11.99</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K28" t="n">
         <v>75</v>
@@ -4090,23 +4094,23 @@
         <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>5.14</v>
+        <v>1.79</v>
       </c>
       <c r="N28" t="n">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.51</v>
+        <v>2.68</v>
       </c>
       <c r="Q28" t="n">
         <v>1691020800</v>
       </c>
       <c r="R28" t="n">
-        <v>290.9</v>
+        <v>17.75</v>
       </c>
       <c r="S28" t="n">
-        <v>290.61</v>
+        <v>17.46</v>
       </c>
       <c r="T28" t="n">
         <v>1025</v>
@@ -4115,7 +4119,7 @@
         <v>72</v>
       </c>
       <c r="V28" t="n">
-        <v>285.79</v>
+        <v>12.64</v>
       </c>
       <c r="W28" t="n">
         <v>0.5</v>
@@ -4155,31 +4159,31 @@
         </is>
       </c>
       <c r="AH28" t="n">
-        <v>500</v>
+        <v>803</v>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>light rain</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>10d</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>2023-08-02 22:12:25</t>
+          <t>2023-08-03 22:11:57</t>
         </is>
       </c>
     </row>
@@ -4192,54 +4196,52 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>America/Mexico_City</t>
+          <t>Mexico DF</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>-18000</v>
       </c>
       <c r="E29" t="n">
-        <v>290.9</v>
+        <v>15.53</v>
       </c>
       <c r="F29" t="n">
-        <v>290.64</v>
+        <v>15.02</v>
       </c>
       <c r="G29" t="n">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="H29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" t="n">
-        <v>286</v>
+        <v>10.51</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L29" t="n">
         <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>7.2</v>
+        <v>2.24</v>
       </c>
       <c r="N29" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>4.57</v>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
         <v>1690934400</v>
       </c>
       <c r="R29" t="n">
-        <v>292</v>
+        <v>18.85</v>
       </c>
       <c r="S29" t="n">
-        <v>291.51</v>
+        <v>18.36</v>
       </c>
       <c r="T29" t="n">
         <v>1025</v>
@@ -4248,7 +4250,7 @@
         <v>60</v>
       </c>
       <c r="V29" t="n">
-        <v>284.08</v>
+        <v>10.93</v>
       </c>
       <c r="W29" t="n">
         <v>0.51</v>
@@ -4290,31 +4292,31 @@
         </is>
       </c>
       <c r="AH29" t="n">
-        <v>502</v>
+        <v>803</v>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>heavy intensity rain</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>10d</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>2023-08-01 22:12:52</t>
+          <t>2023-08-02 22:12:25</t>
         </is>
       </c>
     </row>
@@ -4327,29 +4329,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>America/Mexico_City</t>
+          <t>Mexico DF</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>-18000</v>
       </c>
       <c r="E30" t="n">
-        <v>293.12</v>
+        <v>16.17</v>
       </c>
       <c r="F30" t="n">
-        <v>292.77</v>
+        <v>15.93</v>
       </c>
       <c r="G30" t="n">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="H30" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I30" t="n">
-        <v>285.38</v>
+        <v>12.72</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="K30" t="n">
         <v>75</v>
@@ -4358,21 +4360,23 @@
         <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>4.63</v>
+        <v>2.24</v>
       </c>
       <c r="N30" t="n">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>5.36</v>
+      </c>
       <c r="Q30" t="n">
         <v>1690848000</v>
       </c>
       <c r="R30" t="n">
-        <v>292.01</v>
+        <v>18.86</v>
       </c>
       <c r="S30" t="n">
-        <v>291.73</v>
+        <v>18.58</v>
       </c>
       <c r="T30" t="n">
         <v>1026</v>
@@ -4381,7 +4385,7 @@
         <v>68</v>
       </c>
       <c r="V30" t="n">
-        <v>285.98</v>
+        <v>12.83</v>
       </c>
       <c r="W30" t="n">
         <v>0.33</v>
@@ -4438,12 +4442,12 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>2023-07-31 22:13:19</t>
+          <t>2023-08-01 22:12:52</t>
         </is>
       </c>
     </row>
@@ -4456,29 +4460,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>America/Mexico_City</t>
+          <t>Mexico DF</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>-18000</v>
       </c>
       <c r="E31" t="n">
-        <v>292.01</v>
+        <v>16.17</v>
       </c>
       <c r="F31" t="n">
-        <v>291.73</v>
+        <v>15.83</v>
       </c>
       <c r="G31" t="n">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="H31" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I31" t="n">
-        <v>285.98</v>
+        <v>11.94</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K31" t="n">
         <v>75</v>
@@ -4487,10 +4491,10 @@
         <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="N31" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -4498,10 +4502,10 @@
         <v>1690761600</v>
       </c>
       <c r="R31" t="n">
-        <v>290.01</v>
+        <v>16.86</v>
       </c>
       <c r="S31" t="n">
-        <v>289.94</v>
+        <v>16.79</v>
       </c>
       <c r="T31" t="n">
         <v>1019</v>
@@ -4510,7 +4514,7 @@
         <v>84</v>
       </c>
       <c r="V31" t="n">
-        <v>287.29</v>
+        <v>14.14</v>
       </c>
       <c r="W31" t="n">
         <v>0.13</v>
@@ -4571,12 +4575,12 @@
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>2023-07-30 22:13:44</t>
+          <t>2023-07-31 22:13:19</t>
         </is>
       </c>
     </row>
@@ -4589,41 +4593,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>America/Los_Angeles</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>-25200</v>
       </c>
       <c r="E32" t="n">
-        <v>291.12</v>
+        <v>14.17</v>
       </c>
       <c r="F32" t="n">
-        <v>290.93</v>
+        <v>13.99</v>
       </c>
       <c r="G32" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H32" t="n">
+        <v>90</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>75</v>
       </c>
-      <c r="I32" t="n">
-        <v>286.63</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
         <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>6.69</v>
+        <v>1.54</v>
       </c>
       <c r="N32" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -4631,10 +4635,10 @@
         <v>1691107200</v>
       </c>
       <c r="R32" t="n">
-        <v>291.89</v>
+        <v>18.74</v>
       </c>
       <c r="S32" t="n">
-        <v>291.67</v>
+        <v>18.52</v>
       </c>
       <c r="T32" t="n">
         <v>1018</v>
@@ -4643,7 +4647,7 @@
         <v>71</v>
       </c>
       <c r="V32" t="n">
-        <v>286.53</v>
+        <v>13.38</v>
       </c>
       <c r="W32" t="n">
         <v>2.84</v>
@@ -4681,31 +4685,31 @@
         </is>
       </c>
       <c r="AH32" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>01d</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>2023-08-04 00:14:51</t>
+          <t>2023-08-05 00:13:50</t>
         </is>
       </c>
     </row>
@@ -4718,41 +4722,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>America/Los_Angeles</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>-25200</v>
       </c>
       <c r="E33" t="n">
-        <v>293.17</v>
+        <v>14.08</v>
       </c>
       <c r="F33" t="n">
-        <v>292.95</v>
+        <v>13.82</v>
       </c>
       <c r="G33" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H33" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I33" t="n">
-        <v>286.63</v>
+        <v>11.95</v>
       </c>
       <c r="J33" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>5.66</v>
+        <v>3.6</v>
       </c>
       <c r="N33" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -4760,10 +4764,10 @@
         <v>1691020800</v>
       </c>
       <c r="R33" t="n">
-        <v>294.8</v>
+        <v>21.65</v>
       </c>
       <c r="S33" t="n">
-        <v>294.59</v>
+        <v>21.44</v>
       </c>
       <c r="T33" t="n">
         <v>1016</v>
@@ -4772,7 +4776,7 @@
         <v>60</v>
       </c>
       <c r="V33" t="n">
-        <v>286.71</v>
+        <v>13.56</v>
       </c>
       <c r="W33" t="n">
         <v>2.86</v>
@@ -4810,31 +4814,31 @@
         </is>
       </c>
       <c r="AH33" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>overcast clouds</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>01d</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>2023-08-03 00:15:50</t>
+          <t>2023-08-04 00:14:51</t>
         </is>
       </c>
     </row>
@@ -4847,54 +4851,52 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>America/Los_Angeles</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>-25200</v>
       </c>
       <c r="E34" t="n">
-        <v>293.26</v>
+        <v>14.71</v>
       </c>
       <c r="F34" t="n">
-        <v>292.97</v>
+        <v>14.38</v>
       </c>
       <c r="G34" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H34" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I34" t="n">
-        <v>286</v>
+        <v>11.67</v>
       </c>
       <c r="J34" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
         <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>3.26</v>
+        <v>2.57</v>
       </c>
       <c r="N34" t="n">
-        <v>256</v>
-      </c>
-      <c r="O34" t="n">
-        <v>4.99</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
         <v>1690934400</v>
       </c>
       <c r="R34" t="n">
-        <v>296.82</v>
+        <v>23.67</v>
       </c>
       <c r="S34" t="n">
-        <v>296.65</v>
+        <v>23.5</v>
       </c>
       <c r="T34" t="n">
         <v>1014</v>
@@ -4903,7 +4905,7 @@
         <v>54</v>
       </c>
       <c r="V34" t="n">
-        <v>286.97</v>
+        <v>13.82</v>
       </c>
       <c r="W34" t="n">
         <v>2.97</v>
@@ -4941,7 +4943,7 @@
         </is>
       </c>
       <c r="AH34" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
@@ -4950,7 +4952,7 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>overcast clouds</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
@@ -4960,12 +4962,12 @@
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>2023-08-02 00:16:48</t>
+          <t>2023-08-03 00:15:50</t>
         </is>
       </c>
     </row>
@@ -4978,54 +4980,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>America/Los_Angeles</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>-25200</v>
       </c>
       <c r="E35" t="n">
-        <v>295.39</v>
+        <v>13.9</v>
       </c>
       <c r="F35" t="n">
-        <v>295.16</v>
+        <v>13.64</v>
       </c>
       <c r="G35" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H35" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I35" t="n">
-        <v>286.47</v>
+        <v>11.95</v>
       </c>
       <c r="J35" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="N35" t="n">
-        <v>249</v>
-      </c>
-      <c r="O35" t="n">
-        <v>4.22</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
         <v>1690848000</v>
       </c>
       <c r="R35" t="n">
-        <v>298.7</v>
+        <v>25.55</v>
       </c>
       <c r="S35" t="n">
-        <v>298.62</v>
+        <v>25.47</v>
       </c>
       <c r="T35" t="n">
         <v>1013</v>
@@ -5034,7 +5034,7 @@
         <v>50</v>
       </c>
       <c r="V35" t="n">
-        <v>287.52</v>
+        <v>14.37</v>
       </c>
       <c r="W35" t="n">
         <v>2.99</v>
@@ -5074,31 +5074,31 @@
         </is>
       </c>
       <c r="AH35" t="n">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Clear</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>scattered clouds</t>
+          <t>clear sky</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>03d</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>2023-08-01 00:17:44</t>
+          <t>2023-08-02 00:16:48</t>
         </is>
       </c>
     </row>
@@ -5111,54 +5111,52 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>America/Los_Angeles</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>-25200</v>
       </c>
       <c r="E36" t="n">
-        <v>297.13</v>
+        <v>13.23</v>
       </c>
       <c r="F36" t="n">
-        <v>296.89</v>
+        <v>12.88</v>
       </c>
       <c r="G36" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I36" t="n">
-        <v>286.08</v>
+        <v>11.12</v>
       </c>
       <c r="J36" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>3.1</v>
+        <v>1.54</v>
       </c>
       <c r="N36" t="n">
-        <v>253</v>
-      </c>
-      <c r="O36" t="n">
-        <v>5.03</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
         <v>1690761600</v>
       </c>
       <c r="R36" t="n">
-        <v>301.43</v>
+        <v>28.28</v>
       </c>
       <c r="S36" t="n">
-        <v>300.11</v>
+        <v>26.96</v>
       </c>
       <c r="T36" t="n">
         <v>1015</v>
@@ -5167,7 +5165,7 @@
         <v>21</v>
       </c>
       <c r="V36" t="n">
-        <v>277.04</v>
+        <v>3.89</v>
       </c>
       <c r="W36" t="n">
         <v>3.02</v>
@@ -5226,12 +5224,12 @@
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>2023-07-31 00:18:39</t>
+          <t>2023-08-01 00:17:44</t>
         </is>
       </c>
     </row>
@@ -5244,54 +5242,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Asia/Tbilisi</t>
+          <t>Tiflis</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>14400</v>
       </c>
       <c r="E37" t="n">
-        <v>294.99</v>
+        <v>26.84</v>
       </c>
       <c r="F37" t="n">
-        <v>295.14</v>
+        <v>27.5</v>
       </c>
       <c r="G37" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H37" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I37" t="n">
-        <v>289.94</v>
+        <v>16.76</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="K37" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>11.32</v>
+        <v>4.12</v>
       </c>
       <c r="N37" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>0.27</v>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
         <v>1691107200</v>
       </c>
       <c r="R37" t="n">
-        <v>293.99</v>
+        <v>20.84</v>
       </c>
       <c r="S37" t="n">
-        <v>294.17</v>
+        <v>21.02</v>
       </c>
       <c r="T37" t="n">
         <v>1011</v>
@@ -5300,7 +5296,7 @@
         <v>78</v>
       </c>
       <c r="V37" t="n">
-        <v>290.01</v>
+        <v>16.86</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -5340,26 +5336,26 @@
         </is>
       </c>
       <c r="AH37" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Clear</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>light rain</t>
+          <t>clear sky</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>10n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
@@ -5377,29 +5373,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Asia/Tbilisi</t>
+          <t>Tiflis</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>14400</v>
       </c>
       <c r="E38" t="n">
-        <v>295.99</v>
+        <v>35.84</v>
       </c>
       <c r="F38" t="n">
-        <v>296.24</v>
+        <v>34.65</v>
       </c>
       <c r="G38" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="H38" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
-        <v>290.9</v>
+        <v>12.13</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -5408,10 +5404,10 @@
         <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>7.2</v>
+        <v>2.06</v>
       </c>
       <c r="N38" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -5419,10 +5415,10 @@
         <v>1691020800</v>
       </c>
       <c r="R38" t="n">
-        <v>295.99</v>
+        <v>22.84</v>
       </c>
       <c r="S38" t="n">
-        <v>296.24</v>
+        <v>23.09</v>
       </c>
       <c r="T38" t="n">
         <v>1010</v>
@@ -5431,7 +5427,7 @@
         <v>73</v>
       </c>
       <c r="V38" t="n">
-        <v>290.9</v>
+        <v>17.75</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -5483,12 +5479,12 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
@@ -5506,41 +5502,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Asia/Tbilisi</t>
+          <t>Tiflis</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>14400</v>
       </c>
       <c r="E39" t="n">
-        <v>295.99</v>
+        <v>35.84</v>
       </c>
       <c r="F39" t="n">
-        <v>296.5</v>
+        <v>37.54</v>
       </c>
       <c r="G39" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H39" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I39" t="n">
-        <v>292.95</v>
+        <v>18.44</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L39" t="n">
         <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="N39" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -5548,10 +5544,10 @@
         <v>1690934400</v>
       </c>
       <c r="R39" t="n">
-        <v>295.99</v>
+        <v>22.84</v>
       </c>
       <c r="S39" t="n">
-        <v>296.5</v>
+        <v>23.35</v>
       </c>
       <c r="T39" t="n">
         <v>1011</v>
@@ -5560,7 +5556,7 @@
         <v>83</v>
       </c>
       <c r="V39" t="n">
-        <v>292.95</v>
+        <v>19.8</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -5598,26 +5594,26 @@
         </is>
       </c>
       <c r="AH39" t="n">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>scattered clouds</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>03d</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
@@ -5635,29 +5631,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Asia/Tbilisi</t>
+          <t>Tiflis</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>14400</v>
       </c>
       <c r="E40" t="n">
-        <v>293.99</v>
+        <v>32.84</v>
       </c>
       <c r="F40" t="n">
-        <v>294.17</v>
+        <v>34.19</v>
       </c>
       <c r="G40" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H40" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I40" t="n">
-        <v>290.01</v>
+        <v>18.61</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -5666,10 +5662,10 @@
         <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="N40" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -5677,10 +5673,10 @@
         <v>1690848000</v>
       </c>
       <c r="R40" t="n">
-        <v>293.99</v>
+        <v>20.84</v>
       </c>
       <c r="S40" t="n">
-        <v>294.17</v>
+        <v>21.02</v>
       </c>
       <c r="T40" t="n">
         <v>1011</v>
@@ -5689,7 +5685,7 @@
         <v>78</v>
       </c>
       <c r="V40" t="n">
-        <v>290.01</v>
+        <v>16.86</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -5741,12 +5737,12 @@
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>01n</t>
+          <t>01d</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
@@ -5764,41 +5760,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Asia/Tbilisi</t>
+          <t>Tiflis</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>14400</v>
       </c>
       <c r="E41" t="n">
-        <v>292.99</v>
+        <v>27.84</v>
       </c>
       <c r="F41" t="n">
-        <v>293.2</v>
+        <v>28.63</v>
       </c>
       <c r="G41" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H41" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I41" t="n">
-        <v>290.02</v>
+        <v>17.68</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K41" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>1.54</v>
+        <v>2.57</v>
       </c>
       <c r="N41" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -5806,10 +5802,10 @@
         <v>1690761600</v>
       </c>
       <c r="R41" t="n">
-        <v>292.3</v>
+        <v>19.15</v>
       </c>
       <c r="S41" t="n">
-        <v>292.54</v>
+        <v>19.39</v>
       </c>
       <c r="T41" t="n">
         <v>1012</v>
@@ -5818,7 +5814,7 @@
         <v>87</v>
       </c>
       <c r="V41" t="n">
-        <v>290.09</v>
+        <v>16.94</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -5858,7 +5854,7 @@
         </is>
       </c>
       <c r="AH41" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
@@ -5867,17 +5863,17 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>few clouds</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>04n</t>
+          <t>02d</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
@@ -5895,29 +5891,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>America/Bogota</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>-18000</v>
       </c>
       <c r="E42" t="n">
-        <v>286.88</v>
+        <v>14.73</v>
       </c>
       <c r="F42" t="n">
-        <v>286.19</v>
+        <v>14.01</v>
       </c>
       <c r="G42" t="n">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="H42" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I42" t="n">
-        <v>281.93</v>
+        <v>8.67</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="K42" t="n">
         <v>20</v>
@@ -5926,10 +5922,10 @@
         <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="N42" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -5937,10 +5933,10 @@
         <v>1691107200</v>
       </c>
       <c r="R42" t="n">
-        <v>287.88</v>
+        <v>14.73</v>
       </c>
       <c r="S42" t="n">
-        <v>287.16</v>
+        <v>14.01</v>
       </c>
       <c r="T42" t="n">
         <v>1028</v>
@@ -5949,7 +5945,7 @@
         <v>67</v>
       </c>
       <c r="V42" t="n">
-        <v>281.82</v>
+        <v>8.67</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -6001,17 +5997,17 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>02n</t>
+          <t>02d</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>2023-08-03 20:11:49</t>
+          <t>2023-08-04 20:11:39</t>
         </is>
       </c>
     </row>
@@ -6024,17 +6020,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>America/Bogota</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>-18000</v>
       </c>
       <c r="E43" t="n">
-        <v>285.88</v>
+        <v>12.73</v>
       </c>
       <c r="F43" t="n">
-        <v>285.51</v>
+        <v>12.36</v>
       </c>
       <c r="G43" t="n">
         <v>1030</v>
@@ -6043,22 +6039,22 @@
         <v>88</v>
       </c>
       <c r="I43" t="n">
-        <v>283.95</v>
+        <v>10.8</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="K43" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L43" t="n">
         <v>10000</v>
       </c>
       <c r="M43" t="n">
-        <v>2.57</v>
+        <v>3.6</v>
       </c>
       <c r="N43" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -6066,10 +6062,10 @@
         <v>1691020800</v>
       </c>
       <c r="R43" t="n">
-        <v>286.88</v>
+        <v>13.73</v>
       </c>
       <c r="S43" t="n">
-        <v>286.32</v>
+        <v>13.17</v>
       </c>
       <c r="T43" t="n">
         <v>1029</v>
@@ -6078,7 +6074,7 @@
         <v>77</v>
       </c>
       <c r="V43" t="n">
-        <v>282.92</v>
+        <v>9.77</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -6116,31 +6112,31 @@
         </is>
       </c>
       <c r="AH43" t="n">
-        <v>301</v>
+        <v>802</v>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>Drizzle</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>drizzle</t>
+          <t>scattered clouds</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>09n</t>
+          <t>03d</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>2023-08-02 20:11:59</t>
+          <t>2023-08-03 20:11:49</t>
         </is>
       </c>
     </row>
@@ -6153,29 +6149,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>America/Bogota</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>-18000</v>
       </c>
       <c r="E44" t="n">
-        <v>284.88</v>
+        <v>12.73</v>
       </c>
       <c r="F44" t="n">
-        <v>283.96</v>
+        <v>12.2</v>
       </c>
       <c r="G44" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H44" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I44" t="n">
-        <v>279.8</v>
+        <v>9.74</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="K44" t="n">
         <v>40</v>
@@ -6184,10 +6180,10 @@
         <v>10000</v>
       </c>
       <c r="M44" t="n">
-        <v>4.12</v>
+        <v>1.54</v>
       </c>
       <c r="N44" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -6195,10 +6191,10 @@
         <v>1690934400</v>
       </c>
       <c r="R44" t="n">
-        <v>285.88</v>
+        <v>12.73</v>
       </c>
       <c r="S44" t="n">
-        <v>284.96</v>
+        <v>11.81</v>
       </c>
       <c r="T44" t="n">
         <v>1029</v>
@@ -6207,7 +6203,7 @@
         <v>67</v>
       </c>
       <c r="V44" t="n">
-        <v>279.92</v>
+        <v>6.77</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -6259,17 +6255,17 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>03n</t>
+          <t>03d</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>2023-08-01 20:12:07</t>
+          <t>2023-08-02 20:11:59</t>
         </is>
       </c>
     </row>
@@ -6282,32 +6278,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>America/Bogota</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>-18000</v>
       </c>
       <c r="E45" t="n">
-        <v>287.88</v>
+        <v>13.73</v>
       </c>
       <c r="F45" t="n">
-        <v>287.05</v>
+        <v>13.3</v>
       </c>
       <c r="G45" t="n">
         <v>1030</v>
       </c>
       <c r="H45" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I45" t="n">
-        <v>280.92</v>
+        <v>10.72</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
         <v>10000</v>
@@ -6316,7 +6312,7 @@
         <v>3.09</v>
       </c>
       <c r="N45" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -6324,10 +6320,10 @@
         <v>1690848000</v>
       </c>
       <c r="R45" t="n">
-        <v>287.88</v>
+        <v>14.73</v>
       </c>
       <c r="S45" t="n">
-        <v>287.16</v>
+        <v>14.01</v>
       </c>
       <c r="T45" t="n">
         <v>1029</v>
@@ -6336,7 +6332,7 @@
         <v>67</v>
       </c>
       <c r="V45" t="n">
-        <v>281.82</v>
+        <v>8.67</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -6374,7 +6370,7 @@
         </is>
       </c>
       <c r="AH45" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
@@ -6383,22 +6379,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>scattered clouds</t>
+          <t>few clouds</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>03n</t>
+          <t>02d</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>2023-07-31 20:12:16</t>
+          <t>2023-08-01 20:12:07</t>
         </is>
       </c>
     </row>
@@ -6411,52 +6407,54 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>America/Bogota</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>-18000</v>
       </c>
       <c r="E46" t="n">
-        <v>286.88</v>
+        <v>11.22</v>
       </c>
       <c r="F46" t="n">
-        <v>286.19</v>
+        <v>10.83</v>
       </c>
       <c r="G46" t="n">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="H46" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I46" t="n">
-        <v>281.93</v>
+        <v>10.13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="K46" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>6533</v>
       </c>
       <c r="M46" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="N46" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>3.15</v>
+      </c>
       <c r="Q46" t="n">
         <v>1690761600</v>
       </c>
       <c r="R46" t="n">
-        <v>284.89</v>
+        <v>11.74</v>
       </c>
       <c r="S46" t="n">
-        <v>284.52</v>
+        <v>11.37</v>
       </c>
       <c r="T46" t="n">
         <v>1020</v>
@@ -6465,7 +6463,7 @@
         <v>92</v>
       </c>
       <c r="V46" t="n">
-        <v>283.63</v>
+        <v>10.48</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -6505,7 +6503,7 @@
         </is>
       </c>
       <c r="AH46" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
@@ -6514,22 +6512,22 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>scattered clouds</t>
+          <t>overcast clouds</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>03n</t>
+          <t>04d</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>2023-07-30 20:12:23</t>
+          <t>2023-07-31 20:12:16</t>
         </is>
       </c>
     </row>
@@ -6542,41 +6540,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Asia/Tokyo</t>
+          <t>Tokio</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>32400</v>
       </c>
       <c r="E47" t="n">
-        <v>307.55</v>
+        <v>30.6</v>
       </c>
       <c r="F47" t="n">
-        <v>313.94</v>
+        <v>36.27</v>
       </c>
       <c r="G47" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H47" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I47" t="n">
-        <v>296.89</v>
+        <v>24.26</v>
       </c>
       <c r="J47" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>6.69</v>
+        <v>8.23</v>
       </c>
       <c r="N47" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -6584,10 +6582,10 @@
         <v>1691107200</v>
       </c>
       <c r="R47" t="n">
-        <v>306.18</v>
+        <v>33.03</v>
       </c>
       <c r="S47" t="n">
-        <v>311.03</v>
+        <v>37.88</v>
       </c>
       <c r="T47" t="n">
         <v>1006</v>
@@ -6596,7 +6594,7 @@
         <v>55</v>
       </c>
       <c r="V47" t="n">
-        <v>295.93</v>
+        <v>22.78</v>
       </c>
       <c r="W47" t="n">
         <v>5.79</v>
@@ -6634,26 +6632,26 @@
         </is>
       </c>
       <c r="AH47" t="n">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Clear</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>few clouds</t>
+          <t>clear sky</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>02d</t>
+          <t>01n</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>2023-08-03 21:44:38</t>
+          <t>2023-08-04 10:21:40</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
@@ -6671,29 +6669,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Asia/Tokyo</t>
+          <t>Tokio</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>32400</v>
       </c>
       <c r="E48" t="n">
-        <v>306.39</v>
+        <v>29.41</v>
       </c>
       <c r="F48" t="n">
-        <v>312.55</v>
+        <v>34.29</v>
       </c>
       <c r="G48" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="H48" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I48" t="n">
-        <v>297.01</v>
+        <v>24.06</v>
       </c>
       <c r="J48" t="n">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>20</v>
@@ -6702,10 +6700,10 @@
         <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>7.2</v>
+        <v>6.69</v>
       </c>
       <c r="N48" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -6713,10 +6711,10 @@
         <v>1691020800</v>
       </c>
       <c r="R48" t="n">
-        <v>305.11</v>
+        <v>31.96</v>
       </c>
       <c r="S48" t="n">
-        <v>311.38</v>
+        <v>38.23</v>
       </c>
       <c r="T48" t="n">
         <v>1009</v>
@@ -6725,7 +6723,7 @@
         <v>64</v>
       </c>
       <c r="V48" t="n">
-        <v>297.45</v>
+        <v>24.3</v>
       </c>
       <c r="W48" t="n">
         <v>5.58</v>
@@ -6777,12 +6775,12 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>02d</t>
+          <t>02n</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>2023-08-02 21:44:38</t>
+          <t>2023-08-03 10:21:40</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
@@ -6800,41 +6798,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Asia/Tokyo</t>
+          <t>Tokio</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>32400</v>
       </c>
       <c r="E49" t="n">
-        <v>304.46</v>
+        <v>28.88</v>
       </c>
       <c r="F49" t="n">
-        <v>309.48</v>
+        <v>33.79</v>
       </c>
       <c r="G49" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H49" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I49" t="n">
-        <v>296.57</v>
+        <v>24.44</v>
       </c>
       <c r="J49" t="n">
-        <v>7.59</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L49" t="n">
         <v>10000</v>
       </c>
       <c r="M49" t="n">
-        <v>5.66</v>
+        <v>6.69</v>
       </c>
       <c r="N49" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -6842,10 +6840,10 @@
         <v>1690934400</v>
       </c>
       <c r="R49" t="n">
-        <v>303.58</v>
+        <v>30.43</v>
       </c>
       <c r="S49" t="n">
-        <v>308.23</v>
+        <v>35.08</v>
       </c>
       <c r="T49" t="n">
         <v>1011</v>
@@ -6854,7 +6852,7 @@
         <v>66</v>
       </c>
       <c r="V49" t="n">
-        <v>296.51</v>
+        <v>23.36</v>
       </c>
       <c r="W49" t="n">
         <v>5.28</v>
@@ -6892,7 +6890,7 @@
         </is>
       </c>
       <c r="AH49" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
@@ -6901,17 +6899,17 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>scattered clouds</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>03d</t>
+          <t>04n</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>2023-08-01 21:44:38</t>
+          <t>2023-08-02 10:21:40</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
@@ -6929,29 +6927,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Asia/Tokyo</t>
+          <t>Tokio</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>32400</v>
       </c>
       <c r="E50" t="n">
-        <v>304.15</v>
+        <v>26.62</v>
       </c>
       <c r="F50" t="n">
-        <v>311.15</v>
+        <v>26.62</v>
       </c>
       <c r="G50" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H50" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I50" t="n">
-        <v>298.51</v>
+        <v>22.88</v>
       </c>
       <c r="J50" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>75</v>
@@ -6963,20 +6961,18 @@
         <v>4.12</v>
       </c>
       <c r="N50" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>0.12</v>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
         <v>1690848000</v>
       </c>
       <c r="R50" t="n">
-        <v>303.1</v>
+        <v>29.95</v>
       </c>
       <c r="S50" t="n">
-        <v>309.06</v>
+        <v>35.91</v>
       </c>
       <c r="T50" t="n">
         <v>1013</v>
@@ -6985,7 +6981,7 @@
         <v>74</v>
       </c>
       <c r="V50" t="n">
-        <v>297.96</v>
+        <v>24.81</v>
       </c>
       <c r="W50" t="n">
         <v>2.68</v>
@@ -7025,26 +7021,26 @@
         </is>
       </c>
       <c r="AH50" t="n">
-        <v>500</v>
+        <v>803</v>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>light rain</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>10d</t>
+          <t>04n</t>
         </is>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>2023-07-31 21:44:38</t>
+          <t>2023-08-01 10:21:40</t>
         </is>
       </c>
       <c r="AM50" t="inlineStr">
@@ -7062,41 +7058,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Asia/Tokyo</t>
+          <t>Tokio</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>32400</v>
       </c>
       <c r="E51" t="n">
-        <v>307.54</v>
+        <v>29.21</v>
       </c>
       <c r="F51" t="n">
-        <v>314.54</v>
+        <v>34.65</v>
       </c>
       <c r="G51" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H51" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I51" t="n">
-        <v>297.49</v>
+        <v>24.76</v>
       </c>
       <c r="J51" t="n">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L51" t="n">
         <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>7.72</v>
+        <v>6.17</v>
       </c>
       <c r="N51" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -7104,10 +7100,10 @@
         <v>1690761600</v>
       </c>
       <c r="R51" t="n">
-        <v>304.2</v>
+        <v>31.05</v>
       </c>
       <c r="S51" t="n">
-        <v>307.85</v>
+        <v>34.7</v>
       </c>
       <c r="T51" t="n">
         <v>1014</v>
@@ -7116,7 +7112,7 @@
         <v>59</v>
       </c>
       <c r="V51" t="n">
-        <v>295.24</v>
+        <v>22.09</v>
       </c>
       <c r="W51" t="n">
         <v>6.04</v>
@@ -7156,7 +7152,7 @@
         </is>
       </c>
       <c r="AH51" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
@@ -7165,17 +7161,17 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>scattered clouds</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>03d</t>
+          <t>04n</t>
         </is>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
-          <t>2023-07-30 21:44:38</t>
+          <t>2023-07-31 10:21:40</t>
         </is>
       </c>
       <c r="AM51" t="inlineStr">

--- a/clima.xlsx
+++ b/clima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1356 +434,1461 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ciudad</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>timezone_offset</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Temperatura Actual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Sensacion termica actual</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Presion actual</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current.humidity</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Punto de Rocio actual</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>current.uvi</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>current.clouds</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Visibilidad Actual</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Velocidad del viento actual</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Grados del Viento actual</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>current.rain.1h</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Rafaga del viento</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>dt</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>temp</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>feels_like</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>pressure</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>humidity</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>dew_point</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>uvi</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>clouds</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>visibility</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>wind_speed</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>wind_deg</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>wind_gust</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>rain.1h</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>main</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>icon</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>current.weather.id</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>current.weather.main</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>current.weather.description</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>current.weather.icon</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>current.dt</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>current.sunset</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>51.5085</v>
       </c>
-      <c r="B2" t="n">
+      <c r="F2" t="n">
         <v>-0.1257</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Londres</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>3600</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>19.77</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>19.55</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>1015</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>67</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>13.47</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>4.03</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>100</v>
       </c>
-      <c r="L2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q2" t="n">
         <v>5.66</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>280</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>16.54</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>16.34</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>1010</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>80</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>13.08</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>75</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD2" t="n">
         <v>2.06</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AE2" t="n">
         <v>330</v>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
         <v>803</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
         <v>804</v>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>2023-08-04 16:45:05</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>51.5085</v>
       </c>
-      <c r="B3" t="n">
+      <c r="F3" t="n">
         <v>-0.1257</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Londres</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>3600</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>20.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>20.09</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>1004</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>57</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>11.7</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>2.31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>40</v>
       </c>
-      <c r="L3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.6</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>330</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>16.04</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>16.08</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>993</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>91</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Z3" t="n">
         <v>14.57</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>100</v>
       </c>
-      <c r="Y3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
         <v>291</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AF3" t="n">
         <v>3.58</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
         <v>804</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH3" t="n">
+      <c r="AL3" t="n">
         <v>802</v>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>scattered clouds</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>03d</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2023-08-03 16:46:45</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>51.5085</v>
       </c>
-      <c r="B4" t="n">
+      <c r="F4" t="n">
         <v>-0.1257</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Londres</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
         <v>3600</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>16.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>16.78</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>985</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>90</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>15.05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>2.85</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>75</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>7000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Q4" t="n">
         <v>5.14</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>210</v>
       </c>
-      <c r="O4" t="n">
+      <c r="S4" t="n">
         <v>1.33</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>16.18</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>16.07</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>995</v>
       </c>
-      <c r="U4" t="n">
+      <c r="Y4" t="n">
         <v>85</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Z4" t="n">
         <v>13.66</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>75</v>
       </c>
-      <c r="Y4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD4" t="n">
         <v>2.06</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
         <v>170</v>
       </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
         <v>803</v>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH4" t="n">
+      <c r="AL4" t="n">
         <v>501</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>moderate rain</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2023-08-02 16:48:24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>51.5085</v>
       </c>
-      <c r="B5" t="n">
+      <c r="F5" t="n">
         <v>-0.1257</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Londres</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
         <v>3600</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>21.42</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>21</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>1001</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>53</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>11.45</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>4.01</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>54</v>
       </c>
-      <c r="L5" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5.66</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
         <v>270</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>15.34</v>
       </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>15.23</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>1000</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
         <v>88</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Z5" t="n">
         <v>13.37</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>20</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.17</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
         <v>250</v>
       </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
         <v>801</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>02n</t>
         </is>
       </c>
-      <c r="AH5" t="n">
+      <c r="AL5" t="n">
         <v>803</v>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>2023-08-01 16:50:01</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
         <v>51.5085</v>
       </c>
-      <c r="B6" t="n">
+      <c r="F6" t="n">
         <v>-0.1257</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Londres</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="H6" t="n">
         <v>3600</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>18.32</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>18.35</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>1002</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>82</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>15.2</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>1.87</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>100</v>
       </c>
-      <c r="L6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.58</v>
       </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
         <v>256</v>
       </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>2.37</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>5.81</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
         <v>16.1</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
         <v>16.17</v>
       </c>
-      <c r="T6" t="n">
+      <c r="X6" t="n">
         <v>1009</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>92</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Z6" t="n">
         <v>14.8</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>100</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD6" t="n">
         <v>5.68</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AE6" t="n">
         <v>220</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
         <v>13.83</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
         <v>0.86</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AH6" t="n">
         <v>500</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>10n</t>
         </is>
       </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
         <v>501</v>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>moderate rain</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>2023-07-31 16:51:36</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
         <v>40.7143</v>
       </c>
-      <c r="B7" t="n">
+      <c r="F7" t="n">
         <v>-74.006</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="H7" t="n">
         <v>-14400</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
         <v>22.88</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>23.18</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>1014</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>75</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>18.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>1.88</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>75</v>
       </c>
-      <c r="L7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q7" t="n">
         <v>5.14</v>
       </c>
-      <c r="N7" t="n">
+      <c r="R7" t="n">
         <v>220</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>22.94</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>22.96</v>
       </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
         <v>1017</v>
       </c>
-      <c r="U7" t="n">
+      <c r="Y7" t="n">
         <v>64</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Z7" t="n">
         <v>15.77</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>20</v>
       </c>
-      <c r="Y7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD7" t="n">
         <v>8.23</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AE7" t="n">
         <v>180</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
         <v>10.8</v>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
         <v>801</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>02d</t>
         </is>
       </c>
-      <c r="AH7" t="n">
+      <c r="AL7" t="n">
         <v>803</v>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2023-08-04 21:08:57</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
         <v>40.7143</v>
       </c>
-      <c r="B8" t="n">
+      <c r="F8" t="n">
         <v>-74.006</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
         <v>-14400</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
         <v>22.37</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>22.31</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>1021</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>63</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>14.99</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>2.34</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q8" t="n">
         <v>5.14</v>
       </c>
-      <c r="N8" t="n">
+      <c r="R8" t="n">
         <v>220</v>
       </c>
-      <c r="O8" t="n">
+      <c r="S8" t="n">
         <v>0.25</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R8" t="n">
+      <c r="V8" t="n">
         <v>22.39</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>22.17</v>
       </c>
-      <c r="T8" t="n">
+      <c r="X8" t="n">
         <v>1022</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>57</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Z8" t="n">
         <v>13.46</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6.26</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AE8" t="n">
         <v>165</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="n">
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
         <v>800</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AH8" t="n">
+      <c r="AL8" t="n">
         <v>500</v>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2023-08-03 21:10:04</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
         <v>40.7143</v>
       </c>
-      <c r="B9" t="n">
+      <c r="F9" t="n">
         <v>-74.006</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="H9" t="n">
         <v>-14400</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
         <v>21.92</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>21.42</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>1024</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>48</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>10.42</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>2.21</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q9" t="n">
         <v>4.12</v>
       </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
         <v>50</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>23.89</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>23.59</v>
       </c>
-      <c r="T9" t="n">
+      <c r="X9" t="n">
         <v>1021</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
         <v>48</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Z9" t="n">
         <v>12.22</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>75</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7.15</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AE9" t="n">
         <v>8</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AF9" t="n">
         <v>8.49</v>
       </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="n">
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="n">
         <v>803</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AH9" t="n">
+      <c r="AL9" t="n">
         <v>800</v>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>2023-08-02 21:11:10</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>40.7143</v>
       </c>
-      <c r="B10" t="n">
+      <c r="F10" t="n">
         <v>-74.006</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="H10" t="n">
         <v>-14400</v>
       </c>
-      <c r="E10" t="n">
+      <c r="I10" t="n">
         <v>22.36</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>21.98</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>1021</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>51</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>11.74</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>2.31</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q10" t="n">
         <v>5.36</v>
       </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>8.94</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
         <v>25.61</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>25.61</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
         <v>1016</v>
       </c>
-      <c r="U10" t="n">
+      <c r="Y10" t="n">
         <v>53</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Z10" t="n">
         <v>15.33</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD10" t="n">
         <v>4.12</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AE10" t="n">
         <v>330</v>
       </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
         <v>800</v>
       </c>
@@ -1802,250 +1907,274 @@
           <t>01d</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AL10" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>2023-08-01 21:12:14</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
         <v>40.7143</v>
       </c>
-      <c r="B11" t="n">
+      <c r="F11" t="n">
         <v>-74.006</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
         <v>-14400</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
         <v>23.57</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>23.37</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>1016</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
         <v>53</v>
       </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>13.44</v>
       </c>
-      <c r="J11" t="n">
+      <c r="N11" t="n">
         <v>2.46</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3.6</v>
       </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
         <v>310</v>
       </c>
-      <c r="O11" t="n">
+      <c r="S11" t="n">
         <v>0.25</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R11" t="n">
+      <c r="V11" t="n">
         <v>24.71</v>
       </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
         <v>24.23</v>
       </c>
-      <c r="T11" t="n">
+      <c r="X11" t="n">
         <v>1014</v>
       </c>
-      <c r="U11" t="n">
+      <c r="Y11" t="n">
         <v>38</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Z11" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD11" t="n">
         <v>4.36</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AE11" t="n">
         <v>318</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AF11" t="n">
         <v>5.38</v>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="n">
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
         <v>800</v>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AH11" t="n">
+      <c r="AL11" t="n">
         <v>500</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2023-07-31 21:13:16</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
         <v>-31.4135</v>
       </c>
-      <c r="B12" t="n">
+      <c r="F12" t="n">
         <v>-64.1811</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Cordoba</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="H12" t="n">
         <v>-10800</v>
       </c>
-      <c r="E12" t="n">
+      <c r="I12" t="n">
         <v>14.47</v>
       </c>
-      <c r="F12" t="n">
+      <c r="J12" t="n">
         <v>13.12</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
         <v>1020</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
         <v>44</v>
       </c>
-      <c r="I12" t="n">
+      <c r="M12" t="n">
         <v>2.38</v>
       </c>
-      <c r="J12" t="n">
+      <c r="N12" t="n">
         <v>1.45</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.51</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
         <v>13.31</v>
       </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
         <v>11.95</v>
       </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
         <v>992</v>
       </c>
-      <c r="U12" t="n">
+      <c r="Y12" t="n">
         <v>48</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Z12" t="n">
         <v>2.54</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD12" t="n">
         <v>2.06</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AE12" t="n">
         <v>360</v>
       </c>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
         <v>800</v>
       </c>
@@ -2061,120 +2190,132 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>2023-08-04 18:43:10</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
         <v>-31.4135</v>
       </c>
-      <c r="B13" t="n">
+      <c r="F13" t="n">
         <v>-64.1811</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Cordoba</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="H13" t="n">
         <v>-10800</v>
       </c>
-      <c r="E13" t="n">
+      <c r="I13" t="n">
         <v>15.01</v>
       </c>
-      <c r="F13" t="n">
+      <c r="J13" t="n">
         <v>13.35</v>
       </c>
-      <c r="G13" t="n">
+      <c r="K13" t="n">
         <v>998</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
         <v>30</v>
       </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>-2.13</v>
       </c>
-      <c r="J13" t="n">
+      <c r="N13" t="n">
         <v>1.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>100</v>
       </c>
-      <c r="L13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4.12</v>
       </c>
-      <c r="N13" t="n">
+      <c r="R13" t="n">
         <v>210</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R13" t="n">
+      <c r="V13" t="n">
         <v>18.69</v>
       </c>
-      <c r="S13" t="n">
+      <c r="W13" t="n">
         <v>18.02</v>
       </c>
-      <c r="T13" t="n">
+      <c r="X13" t="n">
         <v>993</v>
       </c>
-      <c r="U13" t="n">
+      <c r="Y13" t="n">
         <v>54</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Z13" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>100</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD13" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AE13" t="n">
         <v>200</v>
       </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>804</v>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
         <v>804</v>
       </c>
@@ -2190,120 +2331,132 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>804</v>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>2023-08-03 18:42:31</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
         <v>-31.4135</v>
       </c>
-      <c r="B14" t="n">
+      <c r="F14" t="n">
         <v>-64.1811</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Cordoba</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="H14" t="n">
         <v>-10800</v>
       </c>
-      <c r="E14" t="n">
+      <c r="I14" t="n">
         <v>23.75</v>
       </c>
-      <c r="F14" t="n">
+      <c r="J14" t="n">
         <v>23.56</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
         <v>964</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
         <v>53</v>
       </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
         <v>13.61</v>
       </c>
-      <c r="J14" t="n">
+      <c r="N14" t="n">
         <v>1.42</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>8000</v>
       </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
         <v>2.57</v>
       </c>
-      <c r="N14" t="n">
+      <c r="R14" t="n">
         <v>220</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R14" t="n">
+      <c r="V14" t="n">
         <v>23.95</v>
       </c>
-      <c r="S14" t="n">
+      <c r="W14" t="n">
         <v>23.52</v>
       </c>
-      <c r="T14" t="n">
+      <c r="X14" t="n">
         <v>985</v>
       </c>
-      <c r="U14" t="n">
+      <c r="Y14" t="n">
         <v>43</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Z14" t="n">
         <v>10.62</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD14" t="n">
         <v>3.09</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AE14" t="n">
         <v>340</v>
       </c>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
         <v>800</v>
       </c>
@@ -2319,522 +2472,570 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>2023-08-02 18:41:53</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
         <v>-31.4135</v>
       </c>
-      <c r="B15" t="n">
+      <c r="F15" t="n">
         <v>-64.1811</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Cordoba</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="H15" t="n">
         <v>-10800</v>
       </c>
-      <c r="E15" t="n">
+      <c r="I15" t="n">
         <v>21.47</v>
       </c>
-      <c r="F15" t="n">
+      <c r="J15" t="n">
         <v>21.24</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
         <v>1012</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
         <v>60</v>
       </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
         <v>13.39</v>
       </c>
-      <c r="J15" t="n">
+      <c r="N15" t="n">
         <v>1.33</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>5000</v>
       </c>
-      <c r="M15" t="n">
+      <c r="Q15" t="n">
         <v>1.54</v>
       </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
         <v>260</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R15" t="n">
+      <c r="V15" t="n">
         <v>20.38</v>
       </c>
-      <c r="S15" t="n">
+      <c r="W15" t="n">
         <v>20.14</v>
       </c>
-      <c r="T15" t="n">
+      <c r="X15" t="n">
         <v>988</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
         <v>64</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Z15" t="n">
         <v>13.35</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD15" t="n">
         <v>4.63</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AE15" t="n">
         <v>360</v>
       </c>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="n">
         <v>800</v>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>01n</t>
         </is>
       </c>
-      <c r="AH15" t="n">
+      <c r="AL15" t="n">
         <v>711</v>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>Smoke</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>50d</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>2023-08-01 18:41:15</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
         <v>-31.4135</v>
       </c>
-      <c r="B16" t="n">
+      <c r="F16" t="n">
         <v>-64.1811</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Cordoba</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="H16" t="n">
         <v>-10800</v>
       </c>
-      <c r="E16" t="n">
+      <c r="I16" t="n">
         <v>17.36</v>
       </c>
-      <c r="F16" t="n">
+      <c r="J16" t="n">
         <v>16.46</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>1019</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
         <v>50</v>
       </c>
-      <c r="I16" t="n">
+      <c r="M16" t="n">
         <v>6.85</v>
       </c>
-      <c r="J16" t="n">
+      <c r="N16" t="n">
         <v>1.14</v>
       </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
         <v>100</v>
       </c>
-      <c r="L16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.1</v>
       </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
         <v>27</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>4.73</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="U16" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R16" t="n">
+      <c r="V16" t="n">
         <v>17.49</v>
       </c>
-      <c r="S16" t="n">
+      <c r="W16" t="n">
         <v>16.5</v>
       </c>
-      <c r="T16" t="n">
+      <c r="X16" t="n">
         <v>1019</v>
       </c>
-      <c r="U16" t="n">
+      <c r="Y16" t="n">
         <v>46</v>
       </c>
-      <c r="V16" t="n">
+      <c r="Z16" t="n">
         <v>5.76</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>39</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD16" t="n">
         <v>1.96</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AE16" t="n">
         <v>207</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AF16" t="n">
         <v>2.2</v>
       </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="n">
         <v>802</v>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>scattered clouds</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>03n</t>
         </is>
       </c>
-      <c r="AH16" t="n">
+      <c r="AL16" t="n">
         <v>804</v>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>2023-07-31 18:40:37</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
         <v>25.0478</v>
       </c>
-      <c r="B17" t="n">
+      <c r="F17" t="n">
         <v>121.5319</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Taipei</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="H17" t="n">
         <v>28800</v>
       </c>
-      <c r="E17" t="n">
+      <c r="I17" t="n">
         <v>30.77</v>
       </c>
-      <c r="F17" t="n">
+      <c r="J17" t="n">
         <v>32.43</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
         <v>998</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
         <v>51</v>
       </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
         <v>19.47</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>75</v>
       </c>
-      <c r="L17" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q17" t="n">
         <v>6.17</v>
       </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
         <v>270</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R17" t="n">
+      <c r="V17" t="n">
         <v>30.03</v>
       </c>
-      <c r="S17" t="n">
+      <c r="W17" t="n">
         <v>32.31</v>
       </c>
-      <c r="T17" t="n">
+      <c r="X17" t="n">
         <v>997</v>
       </c>
-      <c r="U17" t="n">
+      <c r="Y17" t="n">
         <v>57</v>
       </c>
-      <c r="V17" t="n">
+      <c r="Z17" t="n">
         <v>20.58</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AA17" t="n">
         <v>0.51</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AB17" t="n">
         <v>75</v>
       </c>
-      <c r="Y17" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD17" t="n">
         <v>8.23</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
         <v>270</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AF17" t="n">
         <v>13.38</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AG17" t="n">
         <v>4.21</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AH17" t="n">
         <v>502</v>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>heavy intensity rain</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AH17" t="n">
+      <c r="AL17" t="n">
         <v>803</v>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>2023-08-04 07:37:36</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
         <v>25.0478</v>
       </c>
-      <c r="B18" t="n">
+      <c r="F18" t="n">
         <v>121.5319</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Taipei</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="H18" t="n">
         <v>28800</v>
       </c>
-      <c r="E18" t="n">
+      <c r="I18" t="n">
         <v>29.32</v>
       </c>
-      <c r="F18" t="n">
+      <c r="J18" t="n">
         <v>31.1</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
         <v>994</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
         <v>57</v>
       </c>
-      <c r="I18" t="n">
+      <c r="M18" t="n">
         <v>19.92</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>75</v>
       </c>
-      <c r="L18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q18" t="n">
         <v>8.23</v>
       </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
         <v>280</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>14.4</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
         <v>29.58</v>
       </c>
-      <c r="S18" t="n">
+      <c r="W18" t="n">
         <v>30.73</v>
       </c>
-      <c r="T18" t="n">
+      <c r="X18" t="n">
         <v>995</v>
       </c>
-      <c r="U18" t="n">
+      <c r="Y18" t="n">
         <v>52</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Z18" t="n">
         <v>18.69</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AA18" t="n">
         <v>0.29</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AB18" t="n">
         <v>75</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD18" t="n">
         <v>10.8</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AE18" t="n">
         <v>280</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AF18" t="n">
         <v>19.55</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AG18" t="n">
         <v>4.21</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>520</v>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>Rain</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>light intensity shower rain</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>09d</t>
-        </is>
       </c>
       <c r="AH18" t="n">
         <v>520</v>
@@ -2851,255 +3052,279 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
+          <t>09d</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>520</v>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>light intensity shower rain</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
           <t>09n</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>2023-08-03 07:38:13</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
         <v>25.0478</v>
       </c>
-      <c r="B19" t="n">
+      <c r="F19" t="n">
         <v>121.5319</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Taipei</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="H19" t="n">
         <v>28800</v>
       </c>
-      <c r="E19" t="n">
+      <c r="I19" t="n">
         <v>28.64</v>
       </c>
-      <c r="F19" t="n">
+      <c r="J19" t="n">
         <v>30.72</v>
       </c>
-      <c r="G19" t="n">
+      <c r="K19" t="n">
         <v>998</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
         <v>62</v>
       </c>
-      <c r="I19" t="n">
+      <c r="M19" t="n">
         <v>20.64</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>75</v>
       </c>
-      <c r="L19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q19" t="n">
         <v>6.17</v>
       </c>
-      <c r="N19" t="n">
+      <c r="R19" t="n">
         <v>280</v>
       </c>
-      <c r="O19" t="n">
+      <c r="S19" t="n">
         <v>0.15</v>
       </c>
-      <c r="P19" t="n">
+      <c r="T19" t="n">
         <v>11.32</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="U19" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
         <v>28.79</v>
       </c>
-      <c r="S19" t="n">
+      <c r="W19" t="n">
         <v>34.79</v>
       </c>
-      <c r="T19" t="n">
+      <c r="X19" t="n">
         <v>1001</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Y19" t="n">
         <v>83</v>
       </c>
-      <c r="V19" t="n">
+      <c r="Z19" t="n">
         <v>25.61</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AA19" t="n">
         <v>3.14</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AB19" t="n">
         <v>75</v>
       </c>
-      <c r="Y19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD19" t="n">
         <v>2.57</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AE19" t="n">
         <v>290</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="n">
         <v>803</v>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AH19" t="n">
+      <c r="AL19" t="n">
         <v>520</v>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>light intensity shower rain</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>09n</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>2023-08-02 07:38:48</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
         <v>25.0478</v>
       </c>
-      <c r="B20" t="n">
+      <c r="F20" t="n">
         <v>121.5319</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Taipei</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="H20" t="n">
         <v>28800</v>
       </c>
-      <c r="E20" t="n">
+      <c r="I20" t="n">
         <v>28.1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="J20" t="n">
         <v>32.35</v>
       </c>
-      <c r="G20" t="n">
+      <c r="K20" t="n">
         <v>1001</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
         <v>80</v>
       </c>
-      <c r="I20" t="n">
+      <c r="M20" t="n">
         <v>24.32</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>75</v>
       </c>
-      <c r="L20" t="n">
+      <c r="P20" t="n">
         <v>8000</v>
       </c>
-      <c r="M20" t="n">
+      <c r="Q20" t="n">
         <v>2.06</v>
       </c>
-      <c r="N20" t="n">
+      <c r="R20" t="n">
         <v>260</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R20" t="n">
+      <c r="V20" t="n">
         <v>27.62</v>
       </c>
-      <c r="S20" t="n">
+      <c r="W20" t="n">
         <v>29.62</v>
       </c>
-      <c r="T20" t="n">
+      <c r="X20" t="n">
         <v>1004</v>
       </c>
-      <c r="U20" t="n">
+      <c r="Y20" t="n">
         <v>67</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Z20" t="n">
         <v>20.94</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AA20" t="n">
         <v>3.18</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AB20" t="n">
         <v>75</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AC20" t="n">
         <v>5000</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AD20" t="n">
         <v>2.24</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AE20" t="n">
         <v>190</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AF20" t="n">
         <v>3.13</v>
       </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>803</v>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
         <v>803</v>
       </c>
@@ -3115,255 +3340,279 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>803</v>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>2023-08-01 07:39:23</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
         <v>25.0478</v>
       </c>
-      <c r="B21" t="n">
+      <c r="F21" t="n">
         <v>121.5319</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Taipei</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="H21" t="n">
         <v>28800</v>
       </c>
-      <c r="E21" t="n">
+      <c r="I21" t="n">
         <v>27.88</v>
       </c>
-      <c r="F21" t="n">
+      <c r="J21" t="n">
         <v>32.4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="K21" t="n">
         <v>1006</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
         <v>84</v>
       </c>
-      <c r="I21" t="n">
+      <c r="M21" t="n">
         <v>24.92</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>20</v>
       </c>
-      <c r="L21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.57</v>
       </c>
-      <c r="N21" t="n">
+      <c r="R21" t="n">
         <v>90</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R21" t="n">
+      <c r="V21" t="n">
         <v>28.1</v>
       </c>
-      <c r="S21" t="n">
+      <c r="W21" t="n">
         <v>32.84</v>
       </c>
-      <c r="T21" t="n">
+      <c r="X21" t="n">
         <v>1008</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>83</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Z21" t="n">
         <v>24.94</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AA21" t="n">
         <v>0.76</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AB21" t="n">
         <v>99</v>
       </c>
-      <c r="Y21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD21" t="n">
         <v>1.2</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AE21" t="n">
         <v>50</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AF21" t="n">
         <v>2</v>
       </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="n">
         <v>804</v>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AH21" t="n">
+      <c r="AL21" t="n">
         <v>801</v>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>02n</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>2023-07-31 07:39:57</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
         <v>-34.6132</v>
       </c>
-      <c r="B22" t="n">
+      <c r="F22" t="n">
         <v>-58.3772</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Buenos Aires</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="H22" t="n">
         <v>-10800</v>
       </c>
-      <c r="E22" t="n">
+      <c r="I22" t="n">
         <v>11.8</v>
       </c>
-      <c r="F22" t="n">
+      <c r="J22" t="n">
         <v>10.79</v>
       </c>
-      <c r="G22" t="n">
+      <c r="K22" t="n">
         <v>1020</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
         <v>67</v>
       </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
         <v>5.88</v>
       </c>
-      <c r="J22" t="n">
+      <c r="N22" t="n">
         <v>1.48</v>
       </c>
-      <c r="K22" t="n">
+      <c r="O22" t="n">
         <v>4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="P22" t="n">
         <v>9000</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Q22" t="n">
         <v>8.94</v>
       </c>
-      <c r="N22" t="n">
+      <c r="R22" t="n">
         <v>140</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
         <v>15.2</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="U22" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R22" t="n">
+      <c r="V22" t="n">
         <v>11.61</v>
       </c>
-      <c r="S22" t="n">
+      <c r="W22" t="n">
         <v>10.73</v>
       </c>
-      <c r="T22" t="n">
+      <c r="X22" t="n">
         <v>1022</v>
       </c>
-      <c r="U22" t="n">
+      <c r="Y22" t="n">
         <v>73</v>
       </c>
-      <c r="V22" t="n">
+      <c r="Z22" t="n">
         <v>6.94</v>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD22" t="n">
         <v>8.94</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AE22" t="n">
         <v>140</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AF22" t="n">
         <v>15.2</v>
       </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
         <v>800</v>
       </c>
@@ -3379,257 +3628,281 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>2023-08-04 18:14:20</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
         <v>-34.6132</v>
       </c>
-      <c r="B23" t="n">
+      <c r="F23" t="n">
         <v>-58.3772</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Buenos Aires</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
         <v>-10800</v>
       </c>
-      <c r="E23" t="n">
+      <c r="I23" t="n">
         <v>9.66</v>
       </c>
-      <c r="F23" t="n">
+      <c r="J23" t="n">
         <v>6</v>
       </c>
-      <c r="G23" t="n">
+      <c r="K23" t="n">
         <v>1026</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
         <v>59</v>
       </c>
-      <c r="I23" t="n">
+      <c r="M23" t="n">
         <v>2.05</v>
       </c>
-      <c r="J23" t="n">
+      <c r="N23" t="n">
         <v>1.37</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q23" t="n">
         <v>8.94</v>
       </c>
-      <c r="N23" t="n">
+      <c r="R23" t="n">
         <v>140</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
         <v>15.2</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="U23" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R23" t="n">
+      <c r="V23" t="n">
         <v>16.3</v>
       </c>
-      <c r="S23" t="n">
+      <c r="W23" t="n">
         <v>15.11</v>
       </c>
-      <c r="T23" t="n">
+      <c r="X23" t="n">
         <v>1020</v>
       </c>
-      <c r="U23" t="n">
+      <c r="Y23" t="n">
         <v>43</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Z23" t="n">
         <v>3.71</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
         <v>75</v>
       </c>
-      <c r="Y23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD23" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AE23" t="n">
         <v>150</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AF23" t="n">
         <v>13.86</v>
       </c>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="n">
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="n">
         <v>803</v>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH23" t="n">
+      <c r="AL23" t="n">
         <v>800</v>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>2023-08-03 18:13:35</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
         <v>-34.6132</v>
       </c>
-      <c r="B24" t="n">
+      <c r="F24" t="n">
         <v>-58.3772</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Buenos Aires</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="H24" t="n">
         <v>-10800</v>
       </c>
-      <c r="E24" t="n">
+      <c r="I24" t="n">
         <v>20.33</v>
       </c>
-      <c r="F24" t="n">
+      <c r="J24" t="n">
         <v>20.53</v>
       </c>
-      <c r="G24" t="n">
+      <c r="K24" t="n">
         <v>1012</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
         <v>81</v>
       </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
         <v>16.96</v>
       </c>
-      <c r="J24" t="n">
+      <c r="N24" t="n">
         <v>1.43</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3.58</v>
       </c>
-      <c r="N24" t="n">
+      <c r="R24" t="n">
         <v>340</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R24" t="n">
+      <c r="V24" t="n">
         <v>21.17</v>
       </c>
-      <c r="S24" t="n">
+      <c r="W24" t="n">
         <v>21.48</v>
       </c>
-      <c r="T24" t="n">
+      <c r="X24" t="n">
         <v>1013</v>
       </c>
-      <c r="U24" t="n">
+      <c r="Y24" t="n">
         <v>82</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Z24" t="n">
         <v>17.98</v>
       </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD24" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AE24" t="n">
         <v>110</v>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
         <v>800</v>
       </c>
@@ -3645,124 +3918,136 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>2023-08-02 18:12:51</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
         <v>-34.6132</v>
       </c>
-      <c r="B25" t="n">
+      <c r="F25" t="n">
         <v>-58.3772</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Buenos Aires</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="H25" t="n">
         <v>-10800</v>
       </c>
-      <c r="E25" t="n">
+      <c r="I25" t="n">
         <v>17.91</v>
       </c>
-      <c r="F25" t="n">
+      <c r="J25" t="n">
         <v>18.05</v>
       </c>
-      <c r="G25" t="n">
+      <c r="K25" t="n">
         <v>1016</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
         <v>88</v>
       </c>
-      <c r="I25" t="n">
+      <c r="M25" t="n">
         <v>15.9</v>
       </c>
-      <c r="J25" t="n">
+      <c r="N25" t="n">
         <v>1.35</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>9000</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Q25" t="n">
         <v>2.24</v>
       </c>
-      <c r="N25" t="n">
+      <c r="R25" t="n">
         <v>330</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R25" t="n">
+      <c r="V25" t="n">
         <v>16.32</v>
       </c>
-      <c r="S25" t="n">
+      <c r="W25" t="n">
         <v>16.1</v>
       </c>
-      <c r="T25" t="n">
+      <c r="X25" t="n">
         <v>1018</v>
       </c>
-      <c r="U25" t="n">
+      <c r="Y25" t="n">
         <v>80</v>
       </c>
-      <c r="V25" t="n">
+      <c r="Z25" t="n">
         <v>12.87</v>
       </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD25" t="n">
         <v>2.24</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AE25" t="n">
         <v>100</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
         <v>800</v>
       </c>
@@ -3778,124 +4063,136 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>2023-08-01 18:12:07</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
         <v>-34.6132</v>
       </c>
-      <c r="B26" t="n">
+      <c r="F26" t="n">
         <v>-58.3772</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Buenos Aires</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="H26" t="n">
         <v>-10800</v>
       </c>
-      <c r="E26" t="n">
+      <c r="I26" t="n">
         <v>14.91</v>
       </c>
-      <c r="F26" t="n">
+      <c r="J26" t="n">
         <v>14.65</v>
       </c>
-      <c r="G26" t="n">
+      <c r="K26" t="n">
         <v>1021</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
         <v>84</v>
       </c>
-      <c r="I26" t="n">
+      <c r="M26" t="n">
         <v>12.23</v>
       </c>
-      <c r="J26" t="n">
+      <c r="N26" t="n">
         <v>0.89</v>
       </c>
-      <c r="K26" t="n">
+      <c r="O26" t="n">
         <v>100</v>
       </c>
-      <c r="L26" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q26" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="N26" t="n">
+      <c r="R26" t="n">
         <v>100</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R26" t="n">
+      <c r="V26" t="n">
         <v>14.6</v>
       </c>
-      <c r="S26" t="n">
+      <c r="W26" t="n">
         <v>14.02</v>
       </c>
-      <c r="T26" t="n">
+      <c r="X26" t="n">
         <v>1020</v>
       </c>
-      <c r="U26" t="n">
+      <c r="Y26" t="n">
         <v>73</v>
       </c>
-      <c r="V26" t="n">
+      <c r="Z26" t="n">
         <v>9.82</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
         <v>100</v>
       </c>
-      <c r="Y26" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD26" t="n">
         <v>1.65</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AE26" t="n">
         <v>310</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AF26" t="n">
         <v>1.72</v>
       </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="n">
-        <v>804</v>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>overcast clouds</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>04n</t>
-        </is>
-      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
         <v>804</v>
       </c>
@@ -3911,517 +4208,565 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
+          <t>04n</t>
+        </is>
+      </c>
+      <c r="AL26" t="n">
+        <v>804</v>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>2023-07-31 18:11:24</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
         <v>19.4285</v>
       </c>
-      <c r="B27" t="n">
+      <c r="F27" t="n">
         <v>-99.1277</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Mexico DF</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="H27" t="n">
         <v>-18000</v>
       </c>
-      <c r="E27" t="n">
+      <c r="I27" t="n">
         <v>16.73</v>
       </c>
-      <c r="F27" t="n">
+      <c r="J27" t="n">
         <v>16.57</v>
       </c>
-      <c r="G27" t="n">
+      <c r="K27" t="n">
         <v>1009</v>
       </c>
-      <c r="H27" t="n">
+      <c r="L27" t="n">
         <v>81</v>
       </c>
-      <c r="I27" t="n">
+      <c r="M27" t="n">
         <v>13.46</v>
       </c>
-      <c r="J27" t="n">
+      <c r="N27" t="n">
         <v>0.14</v>
       </c>
-      <c r="K27" t="n">
+      <c r="O27" t="n">
         <v>100</v>
       </c>
-      <c r="L27" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="P27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.57</v>
       </c>
-      <c r="N27" t="n">
+      <c r="R27" t="n">
         <v>270</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R27" t="n">
+      <c r="V27" t="n">
         <v>17.75</v>
       </c>
-      <c r="S27" t="n">
+      <c r="W27" t="n">
         <v>17.46</v>
       </c>
-      <c r="T27" t="n">
+      <c r="X27" t="n">
         <v>1025</v>
       </c>
-      <c r="U27" t="n">
+      <c r="Y27" t="n">
         <v>72</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Z27" t="n">
         <v>12.64</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AA27" t="n">
         <v>0.27</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AB27" t="n">
         <v>100</v>
       </c>
-      <c r="Y27" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD27" t="n">
         <v>5.14</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AE27" t="n">
         <v>280</v>
       </c>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="n">
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="n">
         <v>804</v>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AH27" t="n">
+      <c r="AL27" t="n">
         <v>500</v>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>2023-08-04 22:11:27</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
         <v>19.4285</v>
       </c>
-      <c r="B28" t="n">
+      <c r="F28" t="n">
         <v>-99.1277</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Mexico DF</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="H28" t="n">
         <v>-18000</v>
       </c>
-      <c r="E28" t="n">
+      <c r="I28" t="n">
         <v>15.62</v>
       </c>
-      <c r="F28" t="n">
+      <c r="J28" t="n">
         <v>15.3</v>
       </c>
-      <c r="G28" t="n">
+      <c r="K28" t="n">
         <v>1010</v>
       </c>
-      <c r="H28" t="n">
+      <c r="L28" t="n">
         <v>79</v>
       </c>
-      <c r="I28" t="n">
+      <c r="M28" t="n">
         <v>11.99</v>
       </c>
-      <c r="J28" t="n">
+      <c r="N28" t="n">
         <v>0.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="O28" t="n">
         <v>75</v>
       </c>
-      <c r="L28" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.79</v>
       </c>
-      <c r="N28" t="n">
+      <c r="R28" t="n">
         <v>342</v>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
         <v>2.68</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="U28" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R28" t="n">
+      <c r="V28" t="n">
         <v>17.75</v>
       </c>
-      <c r="S28" t="n">
+      <c r="W28" t="n">
         <v>17.46</v>
       </c>
-      <c r="T28" t="n">
+      <c r="X28" t="n">
         <v>1025</v>
       </c>
-      <c r="U28" t="n">
+      <c r="Y28" t="n">
         <v>72</v>
       </c>
-      <c r="V28" t="n">
+      <c r="Z28" t="n">
         <v>12.64</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AA28" t="n">
         <v>0.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AB28" t="n">
         <v>100</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AC28" t="n">
         <v>9656</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AD28" t="n">
         <v>3.09</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AE28" t="n">
         <v>300</v>
       </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AH28" t="n">
         <v>500</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AH28" t="n">
+      <c r="AL28" t="n">
         <v>803</v>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>2023-08-03 22:11:57</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
         <v>19.4285</v>
       </c>
-      <c r="B29" t="n">
+      <c r="F29" t="n">
         <v>-99.1277</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Mexico DF</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="H29" t="n">
         <v>-18000</v>
       </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
         <v>15.53</v>
       </c>
-      <c r="F29" t="n">
+      <c r="J29" t="n">
         <v>15.02</v>
       </c>
-      <c r="G29" t="n">
+      <c r="K29" t="n">
         <v>1012</v>
       </c>
-      <c r="H29" t="n">
+      <c r="L29" t="n">
         <v>72</v>
       </c>
-      <c r="I29" t="n">
+      <c r="M29" t="n">
         <v>10.51</v>
       </c>
-      <c r="J29" t="n">
+      <c r="N29" t="n">
         <v>0.31</v>
       </c>
-      <c r="K29" t="n">
+      <c r="O29" t="n">
         <v>75</v>
       </c>
-      <c r="L29" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2.24</v>
       </c>
-      <c r="N29" t="n">
+      <c r="R29" t="n">
         <v>20</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R29" t="n">
+      <c r="V29" t="n">
         <v>18.85</v>
       </c>
-      <c r="S29" t="n">
+      <c r="W29" t="n">
         <v>18.36</v>
       </c>
-      <c r="T29" t="n">
+      <c r="X29" t="n">
         <v>1025</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>60</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Z29" t="n">
         <v>10.93</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AA29" t="n">
         <v>0.51</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AB29" t="n">
         <v>100</v>
       </c>
-      <c r="Y29" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD29" t="n">
         <v>4.92</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AE29" t="n">
         <v>360</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AF29" t="n">
         <v>10.28</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AG29" t="n">
         <v>23.11</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AH29" t="n">
         <v>503</v>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>very heavy rain</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AH29" t="n">
+      <c r="AL29" t="n">
         <v>803</v>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>2023-08-02 22:12:25</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
         <v>19.4285</v>
       </c>
-      <c r="B30" t="n">
+      <c r="F30" t="n">
         <v>-99.1277</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Mexico DF</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="H30" t="n">
         <v>-18000</v>
       </c>
-      <c r="E30" t="n">
+      <c r="I30" t="n">
         <v>16.17</v>
       </c>
-      <c r="F30" t="n">
+      <c r="J30" t="n">
         <v>15.93</v>
       </c>
-      <c r="G30" t="n">
+      <c r="K30" t="n">
         <v>1011</v>
       </c>
-      <c r="H30" t="n">
+      <c r="L30" t="n">
         <v>80</v>
       </c>
-      <c r="I30" t="n">
+      <c r="M30" t="n">
         <v>12.72</v>
       </c>
-      <c r="J30" t="n">
+      <c r="N30" t="n">
         <v>0.34</v>
       </c>
-      <c r="K30" t="n">
+      <c r="O30" t="n">
         <v>75</v>
       </c>
-      <c r="L30" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2.24</v>
       </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
         <v>18</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
         <v>5.36</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="U30" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R30" t="n">
+      <c r="V30" t="n">
         <v>18.86</v>
       </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
         <v>18.58</v>
       </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
         <v>1026</v>
       </c>
-      <c r="U30" t="n">
+      <c r="Y30" t="n">
         <v>68</v>
       </c>
-      <c r="V30" t="n">
+      <c r="Z30" t="n">
         <v>12.83</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AA30" t="n">
         <v>0.33</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AB30" t="n">
         <v>75</v>
       </c>
-      <c r="Y30" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AC30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD30" t="n">
         <v>5.36</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AE30" t="n">
         <v>310</v>
       </c>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="n">
-        <v>803</v>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>broken clouds</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>04d</t>
-        </is>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
         <v>803</v>
       </c>
@@ -4440,770 +4785,842 @@
           <t>04d</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AL30" t="n">
+        <v>803</v>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>04d</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>2023-08-01 22:12:52</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
         <v>19.4285</v>
       </c>
-      <c r="B31" t="n">
+      <c r="F31" t="n">
         <v>-99.1277</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Mexico DF</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="H31" t="n">
         <v>-18000</v>
       </c>
-      <c r="E31" t="n">
+      <c r="I31" t="n">
         <v>16.17</v>
       </c>
-      <c r="F31" t="n">
+      <c r="J31" t="n">
         <v>15.83</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
         <v>1012</v>
       </c>
-      <c r="H31" t="n">
+      <c r="L31" t="n">
         <v>76</v>
       </c>
-      <c r="I31" t="n">
+      <c r="M31" t="n">
         <v>11.94</v>
       </c>
-      <c r="J31" t="n">
+      <c r="N31" t="n">
         <v>0.35</v>
       </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
         <v>75</v>
       </c>
-      <c r="L31" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.06</v>
       </c>
-      <c r="N31" t="n">
+      <c r="R31" t="n">
         <v>320</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R31" t="n">
+      <c r="V31" t="n">
         <v>16.86</v>
       </c>
-      <c r="S31" t="n">
+      <c r="W31" t="n">
         <v>16.79</v>
       </c>
-      <c r="T31" t="n">
+      <c r="X31" t="n">
         <v>1019</v>
       </c>
-      <c r="U31" t="n">
+      <c r="Y31" t="n">
         <v>84</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Z31" t="n">
         <v>14.14</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AA31" t="n">
         <v>0.13</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AB31" t="n">
         <v>94</v>
       </c>
-      <c r="Y31" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="AC31" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD31" t="n">
         <v>2.14</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AE31" t="n">
         <v>6</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AF31" t="n">
         <v>3.61</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AG31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AH31" t="n">
         <v>500</v>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AI31" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AH31" t="n">
+      <c r="AL31" t="n">
         <v>803</v>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>2023-07-31 22:13:19</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
         <v>37.7021</v>
       </c>
-      <c r="B32" t="n">
+      <c r="F32" t="n">
         <v>-121.9358</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="H32" t="n">
         <v>-25200</v>
       </c>
-      <c r="E32" t="n">
+      <c r="I32" t="n">
         <v>14.17</v>
       </c>
-      <c r="F32" t="n">
+      <c r="J32" t="n">
         <v>13.99</v>
       </c>
-      <c r="G32" t="n">
+      <c r="K32" t="n">
         <v>1016</v>
       </c>
-      <c r="H32" t="n">
+      <c r="L32" t="n">
         <v>90</v>
       </c>
-      <c r="I32" t="n">
+      <c r="M32" t="n">
         <v>12.56</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>75</v>
       </c>
-      <c r="L32" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.54</v>
       </c>
-      <c r="N32" t="n">
+      <c r="R32" t="n">
         <v>320</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R32" t="n">
+      <c r="V32" t="n">
         <v>18.74</v>
       </c>
-      <c r="S32" t="n">
+      <c r="W32" t="n">
         <v>18.52</v>
       </c>
-      <c r="T32" t="n">
+      <c r="X32" t="n">
         <v>1018</v>
       </c>
-      <c r="U32" t="n">
+      <c r="Y32" t="n">
         <v>71</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Z32" t="n">
         <v>13.38</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AA32" t="n">
         <v>2.84</v>
       </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD32" t="n">
         <v>5.66</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AE32" t="n">
         <v>280</v>
       </c>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="n">
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="n">
         <v>800</v>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AH32" t="n">
+      <c r="AL32" t="n">
         <v>803</v>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AM32" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>2023-08-05 00:13:50</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
         <v>37.7021</v>
       </c>
-      <c r="B33" t="n">
+      <c r="F33" t="n">
         <v>-121.9358</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="H33" t="n">
         <v>-25200</v>
       </c>
-      <c r="E33" t="n">
+      <c r="I33" t="n">
         <v>14.08</v>
       </c>
-      <c r="F33" t="n">
+      <c r="J33" t="n">
         <v>13.82</v>
       </c>
-      <c r="G33" t="n">
+      <c r="K33" t="n">
         <v>1017</v>
       </c>
-      <c r="H33" t="n">
+      <c r="L33" t="n">
         <v>87</v>
       </c>
-      <c r="I33" t="n">
+      <c r="M33" t="n">
         <v>11.95</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>100</v>
       </c>
-      <c r="L33" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q33" t="n">
         <v>3.6</v>
       </c>
-      <c r="N33" t="n">
+      <c r="R33" t="n">
         <v>230</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R33" t="n">
+      <c r="V33" t="n">
         <v>21.65</v>
       </c>
-      <c r="S33" t="n">
+      <c r="W33" t="n">
         <v>21.44</v>
       </c>
-      <c r="T33" t="n">
+      <c r="X33" t="n">
         <v>1016</v>
       </c>
-      <c r="U33" t="n">
+      <c r="Y33" t="n">
         <v>60</v>
       </c>
-      <c r="V33" t="n">
+      <c r="Z33" t="n">
         <v>13.56</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AA33" t="n">
         <v>2.86</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AB33" t="n">
         <v>20</v>
       </c>
-      <c r="Y33" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z33" t="n">
+      <c r="AC33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD33" t="n">
         <v>5.66</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AE33" t="n">
         <v>280</v>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="n">
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="n">
         <v>801</v>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AI33" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>02d</t>
         </is>
       </c>
-      <c r="AH33" t="n">
+      <c r="AL33" t="n">
         <v>804</v>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>2023-08-04 00:14:51</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
         <v>37.7021</v>
       </c>
-      <c r="B34" t="n">
+      <c r="F34" t="n">
         <v>-121.9358</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="H34" t="n">
         <v>-25200</v>
       </c>
-      <c r="E34" t="n">
+      <c r="I34" t="n">
         <v>14.71</v>
       </c>
-      <c r="F34" t="n">
+      <c r="J34" t="n">
         <v>14.38</v>
       </c>
-      <c r="G34" t="n">
+      <c r="K34" t="n">
         <v>1016</v>
       </c>
-      <c r="H34" t="n">
+      <c r="L34" t="n">
         <v>82</v>
       </c>
-      <c r="I34" t="n">
+      <c r="M34" t="n">
         <v>11.67</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>100</v>
       </c>
-      <c r="L34" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2.57</v>
       </c>
-      <c r="N34" t="n">
+      <c r="R34" t="n">
         <v>250</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R34" t="n">
+      <c r="V34" t="n">
         <v>23.67</v>
       </c>
-      <c r="S34" t="n">
+      <c r="W34" t="n">
         <v>23.5</v>
       </c>
-      <c r="T34" t="n">
+      <c r="X34" t="n">
         <v>1014</v>
       </c>
-      <c r="U34" t="n">
+      <c r="Y34" t="n">
         <v>54</v>
       </c>
-      <c r="V34" t="n">
+      <c r="Z34" t="n">
         <v>13.82</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AA34" t="n">
         <v>2.97</v>
       </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z34" t="n">
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD34" t="n">
         <v>6.69</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AE34" t="n">
         <v>300</v>
       </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="n">
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="n">
         <v>800</v>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AJ34" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AH34" t="n">
+      <c r="AL34" t="n">
         <v>804</v>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AK34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>2023-08-03 00:15:50</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
         <v>37.7021</v>
       </c>
-      <c r="B35" t="n">
+      <c r="F35" t="n">
         <v>-121.9358</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="H35" t="n">
         <v>-25200</v>
       </c>
-      <c r="E35" t="n">
+      <c r="I35" t="n">
         <v>13.9</v>
       </c>
-      <c r="F35" t="n">
+      <c r="J35" t="n">
         <v>13.64</v>
       </c>
-      <c r="G35" t="n">
+      <c r="K35" t="n">
         <v>1015</v>
       </c>
-      <c r="H35" t="n">
+      <c r="L35" t="n">
         <v>88</v>
       </c>
-      <c r="I35" t="n">
+      <c r="M35" t="n">
         <v>11.95</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3.09</v>
       </c>
-      <c r="N35" t="n">
+      <c r="R35" t="n">
         <v>300</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R35" t="n">
+      <c r="V35" t="n">
         <v>25.55</v>
       </c>
-      <c r="S35" t="n">
+      <c r="W35" t="n">
         <v>25.47</v>
       </c>
-      <c r="T35" t="n">
+      <c r="X35" t="n">
         <v>1013</v>
       </c>
-      <c r="U35" t="n">
+      <c r="Y35" t="n">
         <v>50</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Z35" t="n">
         <v>14.37</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AA35" t="n">
         <v>2.99</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AB35" t="n">
         <v>35</v>
       </c>
-      <c r="Y35" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AC35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD35" t="n">
         <v>3.13</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AE35" t="n">
         <v>214</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AF35" t="n">
         <v>6.26</v>
       </c>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="n">
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="n">
         <v>802</v>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>scattered clouds</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>03d</t>
         </is>
       </c>
-      <c r="AH35" t="n">
+      <c r="AL35" t="n">
         <v>800</v>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>2023-08-02 00:16:48</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
         <v>37.7021</v>
       </c>
-      <c r="B36" t="n">
+      <c r="F36" t="n">
         <v>-121.9358</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="H36" t="n">
         <v>-25200</v>
       </c>
-      <c r="E36" t="n">
+      <c r="I36" t="n">
         <v>13.23</v>
       </c>
-      <c r="F36" t="n">
+      <c r="J36" t="n">
         <v>12.88</v>
       </c>
-      <c r="G36" t="n">
+      <c r="K36" t="n">
         <v>1014</v>
       </c>
-      <c r="H36" t="n">
+      <c r="L36" t="n">
         <v>87</v>
       </c>
-      <c r="I36" t="n">
+      <c r="M36" t="n">
         <v>11.12</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1.54</v>
       </c>
-      <c r="N36" t="n">
+      <c r="R36" t="n">
         <v>280</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R36" t="n">
+      <c r="V36" t="n">
         <v>28.28</v>
       </c>
-      <c r="S36" t="n">
+      <c r="W36" t="n">
         <v>26.96</v>
       </c>
-      <c r="T36" t="n">
+      <c r="X36" t="n">
         <v>1015</v>
       </c>
-      <c r="U36" t="n">
+      <c r="Y36" t="n">
         <v>21</v>
       </c>
-      <c r="V36" t="n">
+      <c r="Z36" t="n">
         <v>3.89</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AA36" t="n">
         <v>3.02</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AB36" t="n">
         <v>6</v>
       </c>
-      <c r="Y36" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z36" t="n">
+      <c r="AC36" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD36" t="n">
         <v>3.69</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AE36" t="n">
         <v>254</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AF36" t="n">
         <v>5.55</v>
       </c>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>01d</t>
-        </is>
-      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
         <v>800</v>
       </c>
@@ -5222,248 +5639,272 @@
           <t>01d</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AL36" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>01d</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>2023-08-01 00:17:44</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
         <v>41.6941</v>
       </c>
-      <c r="B37" t="n">
+      <c r="F37" t="n">
         <v>44.8337</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Tiflis</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="H37" t="n">
         <v>14400</v>
       </c>
-      <c r="E37" t="n">
+      <c r="I37" t="n">
         <v>26.84</v>
       </c>
-      <c r="F37" t="n">
+      <c r="J37" t="n">
         <v>27.5</v>
       </c>
-      <c r="G37" t="n">
+      <c r="K37" t="n">
         <v>1015</v>
       </c>
-      <c r="H37" t="n">
+      <c r="L37" t="n">
         <v>54</v>
       </c>
-      <c r="I37" t="n">
+      <c r="M37" t="n">
         <v>16.76</v>
       </c>
-      <c r="J37" t="n">
+      <c r="N37" t="n">
         <v>2.03</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q37" t="n">
         <v>4.12</v>
       </c>
-      <c r="N37" t="n">
+      <c r="R37" t="n">
         <v>160</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R37" t="n">
+      <c r="V37" t="n">
         <v>20.84</v>
       </c>
-      <c r="S37" t="n">
+      <c r="W37" t="n">
         <v>21.02</v>
       </c>
-      <c r="T37" t="n">
+      <c r="X37" t="n">
         <v>1011</v>
       </c>
-      <c r="U37" t="n">
+      <c r="Y37" t="n">
         <v>78</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Z37" t="n">
         <v>16.86</v>
       </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
         <v>75</v>
       </c>
-      <c r="Y37" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z37" t="n">
+      <c r="AC37" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD37" t="n">
         <v>12.86</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AE37" t="n">
         <v>330</v>
       </c>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="n">
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="n">
         <v>0.42</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AH37" t="n">
         <v>500</v>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AI37" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AJ37" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>10n</t>
         </is>
       </c>
-      <c r="AH37" t="n">
+      <c r="AL37" t="n">
         <v>800</v>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>2023-08-04 13:16:18</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
         <v>41.6941</v>
       </c>
-      <c r="B38" t="n">
+      <c r="F38" t="n">
         <v>44.8337</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Tiflis</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
         <v>14400</v>
       </c>
-      <c r="E38" t="n">
+      <c r="I38" t="n">
         <v>35.84</v>
       </c>
-      <c r="F38" t="n">
+      <c r="J38" t="n">
         <v>34.65</v>
       </c>
-      <c r="G38" t="n">
+      <c r="K38" t="n">
         <v>1007</v>
       </c>
-      <c r="H38" t="n">
+      <c r="L38" t="n">
         <v>24</v>
       </c>
-      <c r="I38" t="n">
+      <c r="M38" t="n">
         <v>12.13</v>
       </c>
-      <c r="J38" t="n">
+      <c r="N38" t="n">
         <v>2.57</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2.06</v>
       </c>
-      <c r="N38" t="n">
+      <c r="R38" t="n">
         <v>280</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R38" t="n">
+      <c r="V38" t="n">
         <v>22.84</v>
       </c>
-      <c r="S38" t="n">
+      <c r="W38" t="n">
         <v>23.09</v>
       </c>
-      <c r="T38" t="n">
+      <c r="X38" t="n">
         <v>1010</v>
       </c>
-      <c r="U38" t="n">
+      <c r="Y38" t="n">
         <v>73</v>
       </c>
-      <c r="V38" t="n">
+      <c r="Z38" t="n">
         <v>17.75</v>
       </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD38" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AE38" t="n">
         <v>330</v>
       </c>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="n">
         <v>800</v>
       </c>
@@ -5479,249 +5920,273 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL38" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>2023-08-03 13:17:27</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
         <v>41.6941</v>
       </c>
-      <c r="B39" t="n">
+      <c r="F39" t="n">
         <v>44.8337</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Tiflis</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="H39" t="n">
         <v>14400</v>
       </c>
-      <c r="E39" t="n">
+      <c r="I39" t="n">
         <v>35.84</v>
       </c>
-      <c r="F39" t="n">
+      <c r="J39" t="n">
         <v>37.54</v>
       </c>
-      <c r="G39" t="n">
+      <c r="K39" t="n">
         <v>1006</v>
       </c>
-      <c r="H39" t="n">
+      <c r="L39" t="n">
         <v>36</v>
       </c>
-      <c r="I39" t="n">
+      <c r="M39" t="n">
         <v>18.44</v>
       </c>
-      <c r="J39" t="n">
+      <c r="N39" t="n">
         <v>1.92</v>
       </c>
-      <c r="K39" t="n">
+      <c r="O39" t="n">
         <v>40</v>
       </c>
-      <c r="L39" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="P39" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q39" t="n">
         <v>3.09</v>
       </c>
-      <c r="N39" t="n">
+      <c r="R39" t="n">
         <v>190</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R39" t="n">
+      <c r="V39" t="n">
         <v>22.84</v>
       </c>
-      <c r="S39" t="n">
+      <c r="W39" t="n">
         <v>23.35</v>
       </c>
-      <c r="T39" t="n">
+      <c r="X39" t="n">
         <v>1011</v>
       </c>
-      <c r="U39" t="n">
+      <c r="Y39" t="n">
         <v>83</v>
       </c>
-      <c r="V39" t="n">
+      <c r="Z39" t="n">
         <v>19.8</v>
       </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD39" t="n">
         <v>4.63</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AE39" t="n">
         <v>330</v>
       </c>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="n">
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="n">
         <v>800</v>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AI39" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>01n</t>
         </is>
       </c>
-      <c r="AH39" t="n">
+      <c r="AL39" t="n">
         <v>802</v>
       </c>
-      <c r="AI39" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>scattered clouds</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>03d</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>2023-08-02 13:18:34</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
         <v>41.6941</v>
       </c>
-      <c r="B40" t="n">
+      <c r="F40" t="n">
         <v>44.8337</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Tiflis</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="H40" t="n">
         <v>14400</v>
       </c>
-      <c r="E40" t="n">
+      <c r="I40" t="n">
         <v>32.84</v>
       </c>
-      <c r="F40" t="n">
+      <c r="J40" t="n">
         <v>34.19</v>
       </c>
-      <c r="G40" t="n">
+      <c r="K40" t="n">
         <v>1008</v>
       </c>
-      <c r="H40" t="n">
+      <c r="L40" t="n">
         <v>43</v>
       </c>
-      <c r="I40" t="n">
+      <c r="M40" t="n">
         <v>18.61</v>
       </c>
-      <c r="J40" t="n">
+      <c r="N40" t="n">
         <v>2.83</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3.6</v>
       </c>
-      <c r="N40" t="n">
+      <c r="R40" t="n">
         <v>180</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R40" t="n">
+      <c r="V40" t="n">
         <v>20.84</v>
       </c>
-      <c r="S40" t="n">
+      <c r="W40" t="n">
         <v>21.02</v>
       </c>
-      <c r="T40" t="n">
+      <c r="X40" t="n">
         <v>1011</v>
       </c>
-      <c r="U40" t="n">
+      <c r="Y40" t="n">
         <v>78</v>
       </c>
-      <c r="V40" t="n">
+      <c r="Z40" t="n">
         <v>16.86</v>
       </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD40" t="n">
         <v>2.06</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AE40" t="n">
         <v>280</v>
       </c>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>01n</t>
-        </is>
-      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="n">
         <v>800</v>
       </c>
@@ -5737,251 +6202,275 @@
       </c>
       <c r="AK40" t="inlineStr">
         <is>
+          <t>01n</t>
+        </is>
+      </c>
+      <c r="AL40" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>2023-08-01 13:19:40</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
         <v>41.6941</v>
       </c>
-      <c r="B41" t="n">
+      <c r="F41" t="n">
         <v>44.8337</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Tiflis</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="H41" t="n">
         <v>14400</v>
       </c>
-      <c r="E41" t="n">
+      <c r="I41" t="n">
         <v>27.84</v>
       </c>
-      <c r="F41" t="n">
+      <c r="J41" t="n">
         <v>28.63</v>
       </c>
-      <c r="G41" t="n">
+      <c r="K41" t="n">
         <v>1011</v>
       </c>
-      <c r="H41" t="n">
+      <c r="L41" t="n">
         <v>54</v>
       </c>
-      <c r="I41" t="n">
+      <c r="M41" t="n">
         <v>17.68</v>
       </c>
-      <c r="J41" t="n">
+      <c r="N41" t="n">
         <v>2.78</v>
       </c>
-      <c r="K41" t="n">
+      <c r="O41" t="n">
         <v>20</v>
       </c>
-      <c r="L41" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q41" t="n">
         <v>2.57</v>
       </c>
-      <c r="N41" t="n">
+      <c r="R41" t="n">
         <v>190</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R41" t="n">
+      <c r="V41" t="n">
         <v>19.15</v>
       </c>
-      <c r="S41" t="n">
+      <c r="W41" t="n">
         <v>19.39</v>
       </c>
-      <c r="T41" t="n">
+      <c r="X41" t="n">
         <v>1012</v>
       </c>
-      <c r="U41" t="n">
+      <c r="Y41" t="n">
         <v>87</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Z41" t="n">
         <v>16.94</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
         <v>80</v>
       </c>
-      <c r="Y41" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z41" t="n">
+      <c r="AC41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD41" t="n">
         <v>0.34</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AE41" t="n">
         <v>260</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AF41" t="n">
         <v>0.99</v>
       </c>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="n">
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="n">
         <v>803</v>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AI41" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AJ41" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG41" t="inlineStr">
+      <c r="AK41" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH41" t="n">
+      <c r="AL41" t="n">
         <v>801</v>
       </c>
-      <c r="AI41" t="inlineStr">
+      <c r="AM41" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AK41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>02d</t>
         </is>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>2023-07-31 13:20:45</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
         <v>4.6097</v>
       </c>
-      <c r="B42" t="n">
+      <c r="F42" t="n">
         <v>-74.0817</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Bogota</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="H42" t="n">
         <v>-18000</v>
       </c>
-      <c r="E42" t="n">
+      <c r="I42" t="n">
         <v>14.73</v>
       </c>
-      <c r="F42" t="n">
+      <c r="J42" t="n">
         <v>14.01</v>
       </c>
-      <c r="G42" t="n">
+      <c r="K42" t="n">
         <v>1030</v>
       </c>
-      <c r="H42" t="n">
+      <c r="L42" t="n">
         <v>67</v>
       </c>
-      <c r="I42" t="n">
+      <c r="M42" t="n">
         <v>8.67</v>
       </c>
-      <c r="J42" t="n">
+      <c r="N42" t="n">
         <v>2.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="O42" t="n">
         <v>20</v>
       </c>
-      <c r="L42" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1.54</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R42" t="n">
+      <c r="V42" t="n">
         <v>14.73</v>
       </c>
-      <c r="S42" t="n">
+      <c r="W42" t="n">
         <v>14.01</v>
       </c>
-      <c r="T42" t="n">
+      <c r="X42" t="n">
         <v>1028</v>
       </c>
-      <c r="U42" t="n">
+      <c r="Y42" t="n">
         <v>67</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Z42" t="n">
         <v>8.67</v>
       </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
         <v>20</v>
       </c>
-      <c r="Y42" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z42" t="n">
+      <c r="AC42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD42" t="n">
         <v>3.6</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AE42" t="n">
         <v>130</v>
       </c>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="n">
-        <v>801</v>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>02n</t>
-        </is>
-      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
         <v>801</v>
       </c>
@@ -5997,249 +6486,273 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
+          <t>02n</t>
+        </is>
+      </c>
+      <c r="AL42" t="n">
+        <v>801</v>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
           <t>02d</t>
         </is>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>2023-08-04 20:11:39</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
         <v>4.6097</v>
       </c>
-      <c r="B43" t="n">
+      <c r="F43" t="n">
         <v>-74.0817</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Bogota</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="H43" t="n">
         <v>-18000</v>
       </c>
-      <c r="E43" t="n">
+      <c r="I43" t="n">
         <v>12.73</v>
       </c>
-      <c r="F43" t="n">
+      <c r="J43" t="n">
         <v>12.36</v>
       </c>
-      <c r="G43" t="n">
+      <c r="K43" t="n">
         <v>1030</v>
       </c>
-      <c r="H43" t="n">
+      <c r="L43" t="n">
         <v>88</v>
       </c>
-      <c r="I43" t="n">
+      <c r="M43" t="n">
         <v>10.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="N43" t="n">
         <v>2.56</v>
       </c>
-      <c r="K43" t="n">
+      <c r="O43" t="n">
         <v>40</v>
       </c>
-      <c r="L43" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="P43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3.6</v>
       </c>
-      <c r="N43" t="n">
+      <c r="R43" t="n">
         <v>40</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R43" t="n">
+      <c r="V43" t="n">
         <v>13.73</v>
       </c>
-      <c r="S43" t="n">
+      <c r="W43" t="n">
         <v>13.17</v>
       </c>
-      <c r="T43" t="n">
+      <c r="X43" t="n">
         <v>1029</v>
       </c>
-      <c r="U43" t="n">
+      <c r="Y43" t="n">
         <v>77</v>
       </c>
-      <c r="V43" t="n">
+      <c r="Z43" t="n">
         <v>9.77</v>
       </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
         <v>75</v>
       </c>
-      <c r="Y43" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="AC43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD43" t="n">
         <v>3.6</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AE43" t="n">
         <v>70</v>
       </c>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="n">
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="n">
         <v>803</v>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AI43" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AJ43" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG43" t="inlineStr">
+      <c r="AK43" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH43" t="n">
+      <c r="AL43" t="n">
         <v>802</v>
       </c>
-      <c r="AI43" t="inlineStr">
+      <c r="AM43" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>scattered clouds</t>
         </is>
       </c>
-      <c r="AK43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>03d</t>
         </is>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>2023-08-03 20:11:49</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
         <v>4.6097</v>
       </c>
-      <c r="B44" t="n">
+      <c r="F44" t="n">
         <v>-74.0817</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Bogota</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
         <v>-18000</v>
       </c>
-      <c r="E44" t="n">
+      <c r="I44" t="n">
         <v>12.73</v>
       </c>
-      <c r="F44" t="n">
+      <c r="J44" t="n">
         <v>12.2</v>
       </c>
-      <c r="G44" t="n">
+      <c r="K44" t="n">
         <v>1031</v>
       </c>
-      <c r="H44" t="n">
+      <c r="L44" t="n">
         <v>82</v>
       </c>
-      <c r="I44" t="n">
+      <c r="M44" t="n">
         <v>9.74</v>
       </c>
-      <c r="J44" t="n">
+      <c r="N44" t="n">
         <v>2.62</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
         <v>40</v>
       </c>
-      <c r="L44" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q44" t="n">
         <v>1.54</v>
       </c>
-      <c r="N44" t="n">
+      <c r="R44" t="n">
         <v>340</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R44" t="n">
+      <c r="V44" t="n">
         <v>12.73</v>
       </c>
-      <c r="S44" t="n">
+      <c r="W44" t="n">
         <v>11.81</v>
       </c>
-      <c r="T44" t="n">
+      <c r="X44" t="n">
         <v>1029</v>
       </c>
-      <c r="U44" t="n">
+      <c r="Y44" t="n">
         <v>67</v>
       </c>
-      <c r="V44" t="n">
+      <c r="Z44" t="n">
         <v>6.77</v>
       </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
         <v>40</v>
       </c>
-      <c r="Y44" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z44" t="n">
+      <c r="AC44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD44" t="n">
         <v>5.66</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AE44" t="n">
         <v>140</v>
       </c>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="n">
-        <v>802</v>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>scattered clouds</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>03n</t>
-        </is>
-      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
         <v>802</v>
       </c>
@@ -6255,511 +6768,559 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
+          <t>03n</t>
+        </is>
+      </c>
+      <c r="AL44" t="n">
+        <v>802</v>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>scattered clouds</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
           <t>03d</t>
         </is>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>2023-08-02 20:11:59</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
         <v>4.6097</v>
       </c>
-      <c r="B45" t="n">
+      <c r="F45" t="n">
         <v>-74.0817</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Bogota</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="H45" t="n">
         <v>-18000</v>
       </c>
-      <c r="E45" t="n">
+      <c r="I45" t="n">
         <v>13.73</v>
       </c>
-      <c r="F45" t="n">
+      <c r="J45" t="n">
         <v>13.3</v>
       </c>
-      <c r="G45" t="n">
+      <c r="K45" t="n">
         <v>1030</v>
       </c>
-      <c r="H45" t="n">
+      <c r="L45" t="n">
         <v>82</v>
       </c>
-      <c r="I45" t="n">
+      <c r="M45" t="n">
         <v>10.72</v>
       </c>
-      <c r="J45" t="n">
+      <c r="N45" t="n">
         <v>1.64</v>
       </c>
-      <c r="K45" t="n">
+      <c r="O45" t="n">
         <v>20</v>
       </c>
-      <c r="L45" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q45" t="n">
         <v>3.09</v>
       </c>
-      <c r="N45" t="n">
+      <c r="R45" t="n">
         <v>170</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R45" t="n">
+      <c r="V45" t="n">
         <v>14.73</v>
       </c>
-      <c r="S45" t="n">
+      <c r="W45" t="n">
         <v>14.01</v>
       </c>
-      <c r="T45" t="n">
+      <c r="X45" t="n">
         <v>1029</v>
       </c>
-      <c r="U45" t="n">
+      <c r="Y45" t="n">
         <v>67</v>
       </c>
-      <c r="V45" t="n">
+      <c r="Z45" t="n">
         <v>8.67</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
         <v>75</v>
       </c>
-      <c r="Y45" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z45" t="n">
+      <c r="AC45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD45" t="n">
         <v>4.12</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AE45" t="n">
         <v>170</v>
       </c>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="n">
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="n">
         <v>803</v>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AI45" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AJ45" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG45" t="inlineStr">
+      <c r="AK45" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH45" t="n">
+      <c r="AL45" t="n">
         <v>801</v>
       </c>
-      <c r="AI45" t="inlineStr">
+      <c r="AM45" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AK45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>02d</t>
         </is>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>2023-08-01 20:12:07</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
         <v>4.6097</v>
       </c>
-      <c r="B46" t="n">
+      <c r="F46" t="n">
         <v>-74.0817</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Bogota</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="H46" t="n">
         <v>-18000</v>
       </c>
-      <c r="E46" t="n">
+      <c r="I46" t="n">
         <v>11.22</v>
       </c>
-      <c r="F46" t="n">
+      <c r="J46" t="n">
         <v>10.83</v>
       </c>
-      <c r="G46" t="n">
+      <c r="K46" t="n">
         <v>1022</v>
       </c>
-      <c r="H46" t="n">
+      <c r="L46" t="n">
         <v>93</v>
       </c>
-      <c r="I46" t="n">
+      <c r="M46" t="n">
         <v>10.13</v>
       </c>
-      <c r="J46" t="n">
+      <c r="N46" t="n">
         <v>2.29</v>
       </c>
-      <c r="K46" t="n">
+      <c r="O46" t="n">
         <v>100</v>
       </c>
-      <c r="L46" t="n">
+      <c r="P46" t="n">
         <v>6533</v>
       </c>
-      <c r="M46" t="n">
+      <c r="Q46" t="n">
         <v>1.65</v>
       </c>
-      <c r="N46" t="n">
+      <c r="R46" t="n">
         <v>146</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
         <v>3.15</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="U46" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R46" t="n">
+      <c r="V46" t="n">
         <v>11.74</v>
       </c>
-      <c r="S46" t="n">
+      <c r="W46" t="n">
         <v>11.37</v>
       </c>
-      <c r="T46" t="n">
+      <c r="X46" t="n">
         <v>1020</v>
       </c>
-      <c r="U46" t="n">
+      <c r="Y46" t="n">
         <v>92</v>
       </c>
-      <c r="V46" t="n">
+      <c r="Z46" t="n">
         <v>10.48</v>
       </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
         <v>63</v>
       </c>
-      <c r="Y46" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z46" t="n">
+      <c r="AC46" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD46" t="n">
         <v>1.41</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AE46" t="n">
         <v>137</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AF46" t="n">
         <v>2.35</v>
       </c>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="n">
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="n">
         <v>803</v>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AI46" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AJ46" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AG46" t="inlineStr">
+      <c r="AK46" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AH46" t="n">
+      <c r="AL46" t="n">
         <v>804</v>
       </c>
-      <c r="AI46" t="inlineStr">
+      <c r="AM46" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>overcast clouds</t>
         </is>
       </c>
-      <c r="AK46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>04d</t>
         </is>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>2023-07-31 20:12:16</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
         <v>35.6895</v>
       </c>
-      <c r="B47" t="n">
+      <c r="F47" t="n">
         <v>139.6917</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Tokio</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="H47" t="n">
         <v>32400</v>
       </c>
-      <c r="E47" t="n">
+      <c r="I47" t="n">
         <v>30.6</v>
       </c>
-      <c r="F47" t="n">
+      <c r="J47" t="n">
         <v>36.27</v>
       </c>
-      <c r="G47" t="n">
+      <c r="K47" t="n">
         <v>1004</v>
       </c>
-      <c r="H47" t="n">
+      <c r="L47" t="n">
         <v>69</v>
       </c>
-      <c r="I47" t="n">
+      <c r="M47" t="n">
         <v>24.26</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q47" t="n">
         <v>8.23</v>
       </c>
-      <c r="N47" t="n">
+      <c r="R47" t="n">
         <v>210</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
         <v>1691107200</v>
       </c>
-      <c r="R47" t="n">
+      <c r="V47" t="n">
         <v>33.03</v>
       </c>
-      <c r="S47" t="n">
+      <c r="W47" t="n">
         <v>37.88</v>
       </c>
-      <c r="T47" t="n">
+      <c r="X47" t="n">
         <v>1006</v>
       </c>
-      <c r="U47" t="n">
+      <c r="Y47" t="n">
         <v>55</v>
       </c>
-      <c r="V47" t="n">
+      <c r="Z47" t="n">
         <v>22.78</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AA47" t="n">
         <v>5.79</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AB47" t="n">
         <v>20</v>
       </c>
-      <c r="Y47" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z47" t="n">
+      <c r="AC47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD47" t="n">
         <v>5.66</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AE47" t="n">
         <v>180</v>
       </c>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="n">
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="n">
         <v>801</v>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AI47" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AJ47" t="inlineStr">
         <is>
           <t>few clouds</t>
         </is>
       </c>
-      <c r="AG47" t="inlineStr">
+      <c r="AK47" t="inlineStr">
         <is>
           <t>02d</t>
         </is>
       </c>
-      <c r="AH47" t="n">
+      <c r="AL47" t="n">
         <v>800</v>
       </c>
-      <c r="AI47" t="inlineStr">
+      <c r="AM47" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>01n</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>2023-08-04 10:21:40</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>2023-08-04 06:43:53</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
         <v>35.6895</v>
       </c>
-      <c r="B48" t="n">
+      <c r="F48" t="n">
         <v>139.6917</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Tokio</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="H48" t="n">
         <v>32400</v>
       </c>
-      <c r="E48" t="n">
+      <c r="I48" t="n">
         <v>29.41</v>
       </c>
-      <c r="F48" t="n">
+      <c r="J48" t="n">
         <v>34.29</v>
       </c>
-      <c r="G48" t="n">
+      <c r="K48" t="n">
         <v>1006</v>
       </c>
-      <c r="H48" t="n">
+      <c r="L48" t="n">
         <v>73</v>
       </c>
-      <c r="I48" t="n">
+      <c r="M48" t="n">
         <v>24.06</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>20</v>
       </c>
-      <c r="L48" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="P48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q48" t="n">
         <v>6.69</v>
       </c>
-      <c r="N48" t="n">
+      <c r="R48" t="n">
         <v>190</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
         <v>1691020800</v>
       </c>
-      <c r="R48" t="n">
+      <c r="V48" t="n">
         <v>31.96</v>
       </c>
-      <c r="S48" t="n">
+      <c r="W48" t="n">
         <v>38.23</v>
       </c>
-      <c r="T48" t="n">
+      <c r="X48" t="n">
         <v>1009</v>
       </c>
-      <c r="U48" t="n">
+      <c r="Y48" t="n">
         <v>64</v>
       </c>
-      <c r="V48" t="n">
+      <c r="Z48" t="n">
         <v>24.3</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AA48" t="n">
         <v>5.58</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AB48" t="n">
         <v>20</v>
       </c>
-      <c r="Y48" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z48" t="n">
+      <c r="AC48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD48" t="n">
         <v>7.2</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AE48" t="n">
         <v>180</v>
       </c>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="n">
-        <v>801</v>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>02d</t>
-        </is>
-      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="n">
         <v>801</v>
       </c>
@@ -6775,406 +7336,460 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
+          <t>02d</t>
+        </is>
+      </c>
+      <c r="AL48" t="n">
+        <v>801</v>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
           <t>02n</t>
         </is>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>2023-08-03 10:21:40</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>2023-08-03 06:44:48</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
         <v>35.6895</v>
       </c>
-      <c r="B49" t="n">
+      <c r="F49" t="n">
         <v>139.6917</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Tokio</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="H49" t="n">
         <v>32400</v>
       </c>
-      <c r="E49" t="n">
+      <c r="I49" t="n">
         <v>28.88</v>
       </c>
-      <c r="F49" t="n">
+      <c r="J49" t="n">
         <v>33.79</v>
       </c>
-      <c r="G49" t="n">
+      <c r="K49" t="n">
         <v>1009</v>
       </c>
-      <c r="H49" t="n">
+      <c r="L49" t="n">
         <v>77</v>
       </c>
-      <c r="I49" t="n">
+      <c r="M49" t="n">
         <v>24.44</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>75</v>
       </c>
-      <c r="L49" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="P49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q49" t="n">
         <v>6.69</v>
       </c>
-      <c r="N49" t="n">
+      <c r="R49" t="n">
         <v>190</v>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="n">
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
         <v>1690934400</v>
       </c>
-      <c r="R49" t="n">
+      <c r="V49" t="n">
         <v>30.43</v>
       </c>
-      <c r="S49" t="n">
+      <c r="W49" t="n">
         <v>35.08</v>
       </c>
-      <c r="T49" t="n">
+      <c r="X49" t="n">
         <v>1011</v>
       </c>
-      <c r="U49" t="n">
+      <c r="Y49" t="n">
         <v>66</v>
       </c>
-      <c r="V49" t="n">
+      <c r="Z49" t="n">
         <v>23.36</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AA49" t="n">
         <v>5.28</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AB49" t="n">
         <v>40</v>
       </c>
-      <c r="Y49" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z49" t="n">
+      <c r="AC49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD49" t="n">
         <v>5.66</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AE49" t="n">
         <v>180</v>
       </c>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="n">
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="n">
         <v>802</v>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AI49" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AJ49" t="inlineStr">
         <is>
           <t>scattered clouds</t>
         </is>
       </c>
-      <c r="AG49" t="inlineStr">
+      <c r="AK49" t="inlineStr">
         <is>
           <t>03d</t>
         </is>
       </c>
-      <c r="AH49" t="n">
+      <c r="AL49" t="n">
         <v>803</v>
       </c>
-      <c r="AI49" t="inlineStr">
+      <c r="AM49" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>2023-08-02 10:21:40</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>2023-08-02 06:45:42</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
         <v>35.6895</v>
       </c>
-      <c r="B50" t="n">
+      <c r="F50" t="n">
         <v>139.6917</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Tokio</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="H50" t="n">
         <v>32400</v>
       </c>
-      <c r="E50" t="n">
+      <c r="I50" t="n">
         <v>26.62</v>
       </c>
-      <c r="F50" t="n">
+      <c r="J50" t="n">
         <v>26.62</v>
       </c>
-      <c r="G50" t="n">
+      <c r="K50" t="n">
         <v>1011</v>
       </c>
-      <c r="H50" t="n">
+      <c r="L50" t="n">
         <v>80</v>
       </c>
-      <c r="I50" t="n">
+      <c r="M50" t="n">
         <v>22.88</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>75</v>
       </c>
-      <c r="L50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="P50" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q50" t="n">
         <v>4.12</v>
       </c>
-      <c r="N50" t="n">
+      <c r="R50" t="n">
         <v>220</v>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="n">
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="n">
         <v>1690848000</v>
       </c>
-      <c r="R50" t="n">
+      <c r="V50" t="n">
         <v>29.95</v>
       </c>
-      <c r="S50" t="n">
+      <c r="W50" t="n">
         <v>35.91</v>
       </c>
-      <c r="T50" t="n">
+      <c r="X50" t="n">
         <v>1013</v>
       </c>
-      <c r="U50" t="n">
+      <c r="Y50" t="n">
         <v>74</v>
       </c>
-      <c r="V50" t="n">
+      <c r="Z50" t="n">
         <v>24.81</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AA50" t="n">
         <v>2.68</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AB50" t="n">
         <v>75</v>
       </c>
-      <c r="Y50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z50" t="n">
+      <c r="AC50" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD50" t="n">
         <v>2.06</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AE50" t="n">
         <v>90</v>
       </c>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="n">
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="n">
         <v>1</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AH50" t="n">
         <v>500</v>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AI50" t="inlineStr">
         <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AJ50" t="inlineStr">
         <is>
           <t>light rain</t>
         </is>
       </c>
-      <c r="AG50" t="inlineStr">
+      <c r="AK50" t="inlineStr">
         <is>
           <t>10d</t>
         </is>
       </c>
-      <c r="AH50" t="n">
+      <c r="AL50" t="n">
         <v>803</v>
       </c>
-      <c r="AI50" t="inlineStr">
+      <c r="AM50" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>2023-08-01 10:21:40</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>2023-08-01 06:46:35</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
         <v>35.6895</v>
       </c>
-      <c r="B51" t="n">
+      <c r="F51" t="n">
         <v>139.6917</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Tokio</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="H51" t="n">
         <v>32400</v>
       </c>
-      <c r="E51" t="n">
+      <c r="I51" t="n">
         <v>29.21</v>
       </c>
-      <c r="F51" t="n">
+      <c r="J51" t="n">
         <v>34.65</v>
       </c>
-      <c r="G51" t="n">
+      <c r="K51" t="n">
         <v>1011</v>
       </c>
-      <c r="H51" t="n">
+      <c r="L51" t="n">
         <v>77</v>
       </c>
-      <c r="I51" t="n">
+      <c r="M51" t="n">
         <v>24.76</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>75</v>
       </c>
-      <c r="L51" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="P51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q51" t="n">
         <v>6.17</v>
       </c>
-      <c r="N51" t="n">
+      <c r="R51" t="n">
         <v>190</v>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
         <v>1690761600</v>
       </c>
-      <c r="R51" t="n">
+      <c r="V51" t="n">
         <v>31.05</v>
       </c>
-      <c r="S51" t="n">
+      <c r="W51" t="n">
         <v>34.7</v>
       </c>
-      <c r="T51" t="n">
+      <c r="X51" t="n">
         <v>1014</v>
       </c>
-      <c r="U51" t="n">
+      <c r="Y51" t="n">
         <v>59</v>
       </c>
-      <c r="V51" t="n">
+      <c r="Z51" t="n">
         <v>22.09</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AA51" t="n">
         <v>6.04</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AB51" t="n">
         <v>4</v>
       </c>
-      <c r="Y51" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Z51" t="n">
+      <c r="AC51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AD51" t="n">
         <v>3.57</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AE51" t="n">
         <v>184</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AF51" t="n">
         <v>3.33</v>
       </c>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="n">
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="n">
         <v>800</v>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AI51" t="inlineStr">
         <is>
           <t>Clear</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AJ51" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
-      <c r="AG51" t="inlineStr">
+      <c r="AK51" t="inlineStr">
         <is>
           <t>01d</t>
         </is>
       </c>
-      <c r="AH51" t="n">
+      <c r="AL51" t="n">
         <v>803</v>
       </c>
-      <c r="AI51" t="inlineStr">
+      <c r="AM51" t="inlineStr">
         <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>broken clouds</t>
         </is>
       </c>
-      <c r="AK51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>04n</t>
         </is>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>2023-07-31 10:21:40</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>2023-07-31 06:47:26</t>
         </is>
